--- a/src/main/resources/Templates/Informacoes_Empresas.xlsx
+++ b/src/main/resources/Templates/Informacoes_Empresas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Heber Castro\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MENICIO JR\Desktop\Natural2SPARQL-master\src\main\resources\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4543B26B-C5CF-4E8E-B27D-A2F6B0F7E272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1E797B-3004-467E-B1F2-97728F99ED5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2005" uniqueCount="842">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2006" uniqueCount="842">
   <si>
     <t>Codigo Negociacao</t>
   </si>
@@ -2615,15 +2615,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2926,17 +2922,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A337" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="55.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="81.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="81.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="38.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -2945,10 +2942,12 @@
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2959,14 +2958,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="str">
+      <c r="C2" t="str">
         <f>D2 &amp; "_" &amp; E2 &amp; "_" &amp; F2</f>
         <v>Saúde_Serv.Méd.Hospit..Análises e Diagnósticos_Serv.Méd.Hospit..Análises e Diagnósticos</v>
       </c>
@@ -2980,14 +2979,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="str">
+      <c r="C3" t="str">
         <f t="shared" ref="C3:C66" si="0">D3 &amp; "_" &amp; E3 &amp; "_" &amp; F3</f>
         <v>Financeiro_Intermediários Financeiros_Bancos</v>
       </c>
@@ -3001,14 +3000,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="3" t="str">
+      <c r="C4" t="str">
         <f t="shared" si="0"/>
         <v>Consumo não Cíclico_Bebidas_Cervejas e Refrigerantes</v>
       </c>
@@ -3022,14 +3021,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="3" t="str">
+      <c r="C5" t="str">
         <f t="shared" si="0"/>
         <v>Bens Industriais_Máquinas e Equipamentos_Máq. e Equip. Industriais</v>
       </c>
@@ -3047,10 +3046,10 @@
       <c r="A6" t="s">
         <v>838</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="3" t="str">
+      <c r="C6" t="str">
         <f t="shared" si="0"/>
         <v>Utilidade Pública_Energia Elétrica_Energia Elétrica</v>
       </c>
@@ -3068,10 +3067,10 @@
       <c r="A7" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="3" t="str">
+      <c r="C7" t="str">
         <f t="shared" si="0"/>
         <v>Utilidade Pública_Energia Elétrica_Energia Elétrica</v>
       </c>
@@ -3085,14 +3084,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="3" t="str">
+      <c r="C8" t="str">
         <f t="shared" si="0"/>
         <v>Consumo não Cíclico_Agropecuária_Agricultura</v>
       </c>
@@ -3106,14 +3105,14 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="3" t="str">
+      <c r="C9" t="str">
         <f t="shared" si="0"/>
         <v>Consumo não Cíclico_Agropecuária_Agricultura</v>
       </c>
@@ -3127,14 +3126,14 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="3" t="str">
+      <c r="C10" t="str">
         <f t="shared" si="0"/>
         <v>Consumo Cíclico_Comércio_Eletrodomésticos</v>
       </c>
@@ -3148,14 +3147,14 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="3" t="str">
+      <c r="C11" t="str">
         <f t="shared" si="0"/>
         <v>Consumo Cíclico_Tecidos. Vestuário e Calçados_Calçados</v>
       </c>
@@ -3169,14 +3168,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="3" t="str">
+      <c r="C12" t="str">
         <f t="shared" si="0"/>
         <v>Consumo Cíclico_Tecidos. Vestuário e Calçados_Calçados</v>
       </c>
@@ -3190,14 +3189,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="3" t="str">
+      <c r="C13" t="str">
         <f t="shared" si="0"/>
         <v>Bens Industriais_Serviços_Serviços Diversos</v>
       </c>
@@ -3211,14 +3210,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>812</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="3" t="str">
+      <c r="C14" t="str">
         <f t="shared" si="0"/>
         <v>Financeiro_Exploração de Imóveis_Exploração de Imóveis</v>
       </c>
@@ -3236,11 +3235,11 @@
       <c r="A15" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="3" t="str">
-        <f t="shared" si="0"/>
+      <c r="C15" t="str">
+        <f>D15 &amp; "_" &amp; E15 &amp; "_" &amp; F15</f>
         <v>Utilidade Pública_Energia Elétrica_Energia Elétrica</v>
       </c>
       <c r="D15" t="s">
@@ -3257,10 +3256,10 @@
       <c r="A16" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="3" t="str">
+      <c r="C16" t="str">
         <f t="shared" si="0"/>
         <v>Utilidade Pública_Energia Elétrica_Energia Elétrica</v>
       </c>
@@ -3278,10 +3277,10 @@
       <c r="A17" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="3" t="str">
+      <c r="C17" t="str">
         <f t="shared" si="0"/>
         <v>Utilidade Pública_Energia Elétrica_Energia Elétrica</v>
       </c>
@@ -3295,14 +3294,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="3" t="str">
+      <c r="C18" t="str">
         <f t="shared" si="0"/>
         <v>Consumo Cíclico_Comércio_Tecidos. Vestuário e Calçados</v>
       </c>
@@ -3316,14 +3315,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="3" t="str">
+      <c r="C19" t="str">
         <f t="shared" si="0"/>
         <v>Utilidade Pública_Água e Saneamento_Água e Saneamento</v>
       </c>
@@ -3337,14 +3336,14 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>839</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="3" t="str">
+      <c r="C20" t="str">
         <f t="shared" si="0"/>
         <v>Consumo Cíclico_Comércio_Produtos Diversos</v>
       </c>
@@ -3358,14 +3357,14 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="3" t="str">
+      <c r="C21" t="str">
         <f t="shared" si="0"/>
         <v>Consumo Cíclico_Diversos_Serviços Educacionais</v>
       </c>
@@ -3379,14 +3378,14 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>813</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="3" t="str">
+      <c r="C22" t="str">
         <f t="shared" si="0"/>
         <v>Financeiro_Previdência e Seguros_Corretoras de Seguros e Resseguros</v>
       </c>
@@ -3400,14 +3399,14 @@
         <v>797</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="3" t="str">
+      <c r="C23" t="str">
         <f t="shared" si="0"/>
         <v>Bens Industriais_Máquinas e Equipamentos_Máq. e Equip. Industriais</v>
       </c>
@@ -3421,14 +3420,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>814</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="3" t="str">
+      <c r="C24" t="str">
         <f t="shared" si="0"/>
         <v>Consumo Cíclico_Comércio_Tecidos. Vestuário e Calçados</v>
       </c>
@@ -3442,14 +3441,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="3" t="str">
+      <c r="C25" t="str">
         <f t="shared" si="0"/>
         <v>Consumo não Cíclico_Comércio e Distribuição_Alimentos</v>
       </c>
@@ -3463,14 +3462,14 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>840</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="3" t="str">
+      <c r="C26" t="str">
         <f t="shared" si="0"/>
         <v>Bens Industriais_Serviços_Serviços Diversos</v>
       </c>
@@ -3484,14 +3483,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>815</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="3" t="str">
+      <c r="C27" t="str">
         <f t="shared" si="0"/>
         <v>Financeiro_Holdings Diversificadas_Holdings Diversificadas</v>
       </c>
@@ -3509,10 +3508,10 @@
       <c r="A28" t="s">
         <v>76</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="3" t="str">
+      <c r="C28" t="str">
         <f t="shared" si="0"/>
         <v>Utilidade Pública_Energia Elétrica_Energia Elétrica</v>
       </c>
@@ -3526,14 +3525,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>78</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" t="s">
         <v>77</v>
       </c>
-      <c r="C29" s="3" t="str">
+      <c r="C29" t="str">
         <f t="shared" si="0"/>
         <v>Consumo Cíclico_Construção Civil_Incorporações</v>
       </c>
@@ -3547,14 +3546,14 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>82</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" t="s">
         <v>81</v>
       </c>
-      <c r="C30" s="3" t="str">
+      <c r="C30" t="str">
         <f t="shared" si="0"/>
         <v>Bens Industriais_Construção e Engenharia_Construção Pesada</v>
       </c>
@@ -3568,14 +3567,14 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>82</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="3" t="str">
+      <c r="C31" t="str">
         <f t="shared" si="0"/>
         <v>Bens Industriais_Construção e Engenharia_Construção Pesada</v>
       </c>
@@ -3589,14 +3588,14 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" t="s">
         <v>86</v>
       </c>
-      <c r="C32" s="3" t="str">
+      <c r="C32" t="str">
         <f t="shared" si="0"/>
         <v>Bens Industriais_Transporte_Transporte Aéreo</v>
       </c>
@@ -3610,14 +3609,14 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>841</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" t="s">
         <v>90</v>
       </c>
-      <c r="C33" s="3" t="str">
+      <c r="C33" t="str">
         <f t="shared" si="0"/>
         <v>Financeiro_Serviços Financeiros Diversos_Serviços Financeiros Diversos</v>
       </c>
@@ -3631,14 +3630,14 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>816</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" t="s">
         <v>92</v>
       </c>
-      <c r="C34" s="3" t="str">
+      <c r="C34" t="str">
         <f t="shared" si="0"/>
         <v>Consumo Cíclico_Diversos_Serviços Educacionais</v>
       </c>
@@ -3652,14 +3651,14 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>94</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" t="s">
         <v>93</v>
       </c>
-      <c r="C35" s="3" t="str">
+      <c r="C35" t="str">
         <f t="shared" si="0"/>
         <v>Saúde_Equipamentos_Equipamentos</v>
       </c>
@@ -3673,14 +3672,14 @@
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>94</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" t="s">
         <v>96</v>
       </c>
-      <c r="C36" s="3" t="str">
+      <c r="C36" t="str">
         <f t="shared" si="0"/>
         <v>Saúde_Equipamentos_Equipamentos</v>
       </c>
@@ -3694,14 +3693,14 @@
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>98</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" t="s">
         <v>97</v>
       </c>
-      <c r="C37" s="3" t="str">
+      <c r="C37" t="str">
         <f t="shared" si="0"/>
         <v>Financeiro_Intermediários Financeiros_Bancos</v>
       </c>
@@ -3715,14 +3714,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>837</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" t="s">
         <v>99</v>
       </c>
-      <c r="C38" s="3" t="str">
+      <c r="C38" t="str">
         <f t="shared" si="0"/>
         <v>Financeiro_Intermediários Financeiros_Bancos</v>
       </c>
@@ -3736,14 +3735,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>101</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" t="s">
         <v>100</v>
       </c>
-      <c r="C39" s="3" t="str">
+      <c r="C39" t="str">
         <f t="shared" si="0"/>
         <v>Financeiro_Intermediários Financeiros_Bancos</v>
       </c>
@@ -3757,14 +3756,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>101</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" t="s">
         <v>102</v>
       </c>
-      <c r="C40" s="3" t="str">
+      <c r="C40" t="str">
         <f t="shared" si="0"/>
         <v>Financeiro_Intermediários Financeiros_Bancos</v>
       </c>
@@ -3778,14 +3777,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>104</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" t="s">
         <v>103</v>
       </c>
-      <c r="C41" s="3" t="str">
+      <c r="C41" t="str">
         <f t="shared" si="0"/>
         <v>Financeiro_Previdência e Seguros_Seguradoras</v>
       </c>
@@ -3799,14 +3798,14 @@
         <v>106</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>108</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" t="s">
         <v>107</v>
       </c>
-      <c r="C42" s="3" t="str">
+      <c r="C42" t="str">
         <f t="shared" si="0"/>
         <v>Bens Industriais_Máquinas e Equipamentos_Máq. e Equip. Industriais</v>
       </c>
@@ -3820,14 +3819,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>108</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" t="s">
         <v>109</v>
       </c>
-      <c r="C43" s="3" t="str">
+      <c r="C43" t="str">
         <f t="shared" si="0"/>
         <v>Bens Industriais_Máquinas e Equipamentos_Máq. e Equip. Industriais</v>
       </c>
@@ -3841,14 +3840,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>111</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" t="s">
         <v>110</v>
       </c>
-      <c r="C44" s="3" t="str">
+      <c r="C44" t="str">
         <f t="shared" si="0"/>
         <v>Consumo não Cíclico_Alimentos Processados_Carnes e Derivados</v>
       </c>
@@ -3862,14 +3861,14 @@
         <v>113</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>115</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" t="s">
         <v>114</v>
       </c>
-      <c r="C45" s="3" t="str">
+      <c r="C45" t="str">
         <f t="shared" si="0"/>
         <v>Financeiro_Intermediários Financeiros_Bancos</v>
       </c>
@@ -3883,14 +3882,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>115</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" t="s">
         <v>116</v>
       </c>
-      <c r="C46" s="3" t="str">
+      <c r="C46" t="str">
         <f t="shared" si="0"/>
         <v>Financeiro_Intermediários Financeiros_Bancos</v>
       </c>
@@ -3904,14 +3903,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>118</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" t="s">
         <v>117</v>
       </c>
-      <c r="C47" s="3" t="str">
+      <c r="C47" t="str">
         <f t="shared" si="0"/>
         <v>Financeiro_Intermediários Financeiros_Bancos</v>
       </c>
@@ -3925,14 +3924,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>120</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" t="s">
         <v>119</v>
       </c>
-      <c r="C48" s="3" t="str">
+      <c r="C48" t="str">
         <f t="shared" si="0"/>
         <v>Saúde_Medicamentos e Outros Produtos_Medicamentos e Outros Produtos</v>
       </c>
@@ -3946,14 +3945,14 @@
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>123</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" t="s">
         <v>122</v>
       </c>
-      <c r="C49" s="3" t="str">
+      <c r="C49" t="str">
         <f t="shared" si="0"/>
         <v>Saúde_Comércio e Distribuição_Medicamentos e Outros Produtos</v>
       </c>
@@ -3967,14 +3966,14 @@
         <v>121</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>125</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" t="s">
         <v>124</v>
       </c>
-      <c r="C50" s="3" t="str">
+      <c r="C50" t="str">
         <f t="shared" si="0"/>
         <v>Financeiro_Intermediários Financeiros_Bancos</v>
       </c>
@@ -3988,14 +3987,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>125</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" t="s">
         <v>126</v>
       </c>
-      <c r="C51" s="3" t="str">
+      <c r="C51" t="str">
         <f t="shared" si="0"/>
         <v>Financeiro_Intermediários Financeiros_Bancos</v>
       </c>
@@ -4009,14 +4008,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>128</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" t="s">
         <v>127</v>
       </c>
-      <c r="C52" s="3" t="str">
+      <c r="C52" t="str">
         <f t="shared" si="0"/>
         <v>Financeiro_Intermediários Financeiros_Bancos</v>
       </c>
@@ -4030,14 +4029,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>130</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" t="s">
         <v>129</v>
       </c>
-      <c r="C53" s="3" t="str">
+      <c r="C53" t="str">
         <f t="shared" si="0"/>
         <v>Financeiro_Intermediários Financeiros_Bancos</v>
       </c>
@@ -4051,14 +4050,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>132</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" t="s">
         <v>131</v>
       </c>
-      <c r="C54" s="3" t="str">
+      <c r="C54" t="str">
         <f t="shared" si="0"/>
         <v>Consumo Cíclico_Viagens e Lazer_Bicicletas</v>
       </c>
@@ -4072,14 +4071,14 @@
         <v>134</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>136</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" t="s">
         <v>135</v>
       </c>
-      <c r="C55" s="3" t="str">
+      <c r="C55" t="str">
         <f t="shared" si="0"/>
         <v>Tecnologia da Informação_Programas e Serviços_Programas e Serviços</v>
       </c>
@@ -4093,14 +4092,14 @@
         <v>138</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>817</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" t="s">
         <v>139</v>
       </c>
-      <c r="C56" s="3" t="str">
+      <c r="C56" t="str">
         <f t="shared" si="0"/>
         <v>Financeiro_Serviços Financeiros Diversos_Serviços Financeiros Diversos</v>
       </c>
@@ -4114,14 +4113,14 @@
         <v>91</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>141</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" t="s">
         <v>140</v>
       </c>
-      <c r="C57" s="3" t="str">
+      <c r="C57" t="str">
         <f t="shared" si="0"/>
         <v>Consumo não Cíclico_Produtos de Uso Pessoal e de Limpeza_Produtos de Limpeza</v>
       </c>
@@ -4135,14 +4134,14 @@
         <v>143</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>145</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" t="s">
         <v>144</v>
       </c>
-      <c r="C58" s="3" t="str">
+      <c r="C58" t="str">
         <f t="shared" si="0"/>
         <v>Financeiro_Intermediários Financeiros_Bancos</v>
       </c>
@@ -4156,14 +4155,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>145</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" t="s">
         <v>146</v>
       </c>
-      <c r="C59" s="3" t="str">
+      <c r="C59" t="str">
         <f t="shared" si="0"/>
         <v>Financeiro_Intermediários Financeiros_Bancos</v>
       </c>
@@ -4177,14 +4176,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>145</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" t="s">
         <v>147</v>
       </c>
-      <c r="C60" s="3" t="str">
+      <c r="C60" t="str">
         <f t="shared" si="0"/>
         <v>Financeiro_Intermediários Financeiros_Bancos</v>
       </c>
@@ -4198,14 +4197,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>149</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" t="s">
         <v>148</v>
       </c>
-      <c r="C61" s="3" t="str">
+      <c r="C61" t="str">
         <f t="shared" si="0"/>
         <v>Financeiro_Intermediários Financeiros_Bancos</v>
       </c>
@@ -4219,14 +4218,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>151</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" t="s">
         <v>150</v>
       </c>
-      <c r="C62" s="3" t="str">
+      <c r="C62" t="str">
         <f t="shared" si="0"/>
         <v>Materiais Básicos_Mineração_Minerais Metálicos</v>
       </c>
@@ -4240,14 +4239,14 @@
         <v>154</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>151</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" t="s">
         <v>155</v>
       </c>
-      <c r="C63" s="3" t="str">
+      <c r="C63" t="str">
         <f t="shared" si="0"/>
         <v>Materiais Básicos_Mineração_Minerais Metálicos</v>
       </c>
@@ -4261,14 +4260,14 @@
         <v>154</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>157</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" t="s">
         <v>156</v>
       </c>
-      <c r="C64" s="3" t="str">
+      <c r="C64" t="str">
         <f t="shared" si="0"/>
         <v>Financeiro_Intermediários Financeiros_Bancos</v>
       </c>
@@ -4282,14 +4281,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>159</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" t="s">
         <v>158</v>
       </c>
-      <c r="C65" s="3" t="str">
+      <c r="C65" t="str">
         <f t="shared" si="0"/>
         <v>Consumo não Cíclico_Alimentos Processados_Carnes e Derivados</v>
       </c>
@@ -4303,14 +4302,14 @@
         <v>113</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>818</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" t="s">
         <v>160</v>
       </c>
-      <c r="C66" s="3" t="str">
+      <c r="C66" t="str">
         <f t="shared" si="0"/>
         <v>Financeiro_Previdência e Seguros_Seguradoras</v>
       </c>
@@ -4324,14 +4323,14 @@
         <v>106</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>819</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" t="s">
         <v>161</v>
       </c>
-      <c r="C67" s="3" t="str">
+      <c r="C67" t="str">
         <f t="shared" ref="C67:C130" si="1">D67 &amp; "_" &amp; E67 &amp; "_" &amp; F67</f>
         <v>Comunicações_Telecomunicações_Telecomunicações</v>
       </c>
@@ -4345,14 +4344,14 @@
         <v>272</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>820</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" t="s">
         <v>162</v>
       </c>
-      <c r="C68" s="3" t="str">
+      <c r="C68" t="str">
         <f t="shared" si="1"/>
         <v>Financeiro_Intermediários Financeiros_Bancos</v>
       </c>
@@ -4366,14 +4365,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>820</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" t="s">
         <v>163</v>
       </c>
-      <c r="C69" s="3" t="str">
+      <c r="C69" t="str">
         <f t="shared" si="1"/>
         <v>Financeiro_Intermediários Financeiros_Bancos</v>
       </c>
@@ -4387,14 +4386,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>165</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" t="s">
         <v>164</v>
       </c>
-      <c r="C70" s="3" t="str">
+      <c r="C70" t="str">
         <f t="shared" si="1"/>
         <v>Materiais Básicos_Químicos_Petroquímicos</v>
       </c>
@@ -4408,14 +4407,14 @@
         <v>167</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>165</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" t="s">
         <v>168</v>
       </c>
-      <c r="C71" s="3" t="str">
+      <c r="C71" t="str">
         <f t="shared" si="1"/>
         <v>Materiais Básicos_Químicos_Petroquímicos</v>
       </c>
@@ -4429,14 +4428,14 @@
         <v>167</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>821</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" t="s">
         <v>169</v>
       </c>
-      <c r="C72" s="3" t="str">
+      <c r="C72" t="str">
         <f t="shared" si="1"/>
         <v>Financeiro_Exploração de Imóveis_Exploração de Imóveis</v>
       </c>
@@ -4450,14 +4449,14 @@
         <v>380</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>171</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" t="s">
         <v>170</v>
       </c>
-      <c r="C73" s="3" t="str">
+      <c r="C73" t="str">
         <f t="shared" si="1"/>
         <v>Financeiro_Intermediários Financeiros_Bancos</v>
       </c>
@@ -4471,14 +4470,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>171</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" t="s">
         <v>172</v>
       </c>
-      <c r="C74" s="3" t="str">
+      <c r="C74" t="str">
         <f t="shared" si="1"/>
         <v>Financeiro_Intermediários Financeiros_Bancos</v>
       </c>
@@ -4492,14 +4491,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>171</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" t="s">
         <v>173</v>
       </c>
-      <c r="C75" s="3" t="str">
+      <c r="C75" t="str">
         <f t="shared" si="1"/>
         <v>Financeiro_Intermediários Financeiros_Bancos</v>
       </c>
@@ -4513,14 +4512,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>175</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" t="s">
         <v>174</v>
       </c>
-      <c r="C76" s="3" t="str">
+      <c r="C76" t="str">
         <f t="shared" si="1"/>
         <v>Financeiro_Intermediários Financeiros_Bancos</v>
       </c>
@@ -4534,14 +4533,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>175</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" t="s">
         <v>176</v>
       </c>
-      <c r="C77" s="3" t="str">
+      <c r="C77" t="str">
         <f t="shared" si="1"/>
         <v>Financeiro_Intermediários Financeiros_Bancos</v>
       </c>
@@ -4555,14 +4554,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>178</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" t="s">
         <v>177</v>
       </c>
-      <c r="C78" s="3" t="str">
+      <c r="C78" t="str">
         <f t="shared" si="1"/>
         <v>Consumo Cíclico_Tecidos. Vestuário e Calçados_Calçados</v>
       </c>
@@ -4576,14 +4575,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>180</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" t="s">
         <v>179</v>
       </c>
-      <c r="C79" s="3" t="str">
+      <c r="C79" t="str">
         <f t="shared" si="1"/>
         <v>Consumo não Cíclico_Alimentos Processados_Alimentos Diversos</v>
       </c>
@@ -4597,14 +4596,14 @@
         <v>181</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>183</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" t="s">
         <v>182</v>
       </c>
-      <c r="C80" s="3" t="str">
+      <c r="C80" t="str">
         <f t="shared" si="1"/>
         <v>Tecnologia da Informação_Programas e Serviços_Programas e Serviços</v>
       </c>
@@ -4618,14 +4617,14 @@
         <v>138</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>185</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" t="s">
         <v>184</v>
       </c>
-      <c r="C81" s="3" t="str">
+      <c r="C81" t="str">
         <f t="shared" si="1"/>
         <v>Materiais Básicos_Mineração_Minerais Metálicos</v>
       </c>
@@ -4643,10 +4642,10 @@
       <c r="A82" t="s">
         <v>187</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" t="s">
         <v>186</v>
       </c>
-      <c r="C82" s="3" t="str">
+      <c r="C82" t="str">
         <f t="shared" si="1"/>
         <v>Utilidade Pública_Energia Elétrica_Energia Elétrica</v>
       </c>
@@ -4660,14 +4659,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>822</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" t="s">
         <v>188</v>
       </c>
-      <c r="C83" s="3" t="str">
+      <c r="C83" t="str">
         <f t="shared" si="1"/>
         <v>Bens Industriais_Transporte_Exploração de Rodovias</v>
       </c>
@@ -4681,14 +4680,14 @@
         <v>293</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>190</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" t="s">
         <v>189</v>
       </c>
-      <c r="C84" s="3" t="str">
+      <c r="C84" t="str">
         <f t="shared" si="1"/>
         <v>Consumo Cíclico_Comércio_Tecidos. Vestuário e Calçados</v>
       </c>
@@ -4706,10 +4705,10 @@
       <c r="A85" t="s">
         <v>192</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" t="s">
         <v>191</v>
       </c>
-      <c r="C85" s="3" t="str">
+      <c r="C85" t="str">
         <f t="shared" si="1"/>
         <v>Utilidade Pública_Energia Elétrica_Energia Elétrica</v>
       </c>
@@ -4727,10 +4726,10 @@
       <c r="A86" t="s">
         <v>192</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" t="s">
         <v>193</v>
       </c>
-      <c r="C86" s="3" t="str">
+      <c r="C86" t="str">
         <f t="shared" si="1"/>
         <v>Utilidade Pública_Energia Elétrica_Energia Elétrica</v>
       </c>
@@ -4748,10 +4747,10 @@
       <c r="A87" t="s">
         <v>192</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" t="s">
         <v>194</v>
       </c>
-      <c r="C87" s="3" t="str">
+      <c r="C87" t="str">
         <f t="shared" si="1"/>
         <v>Utilidade Pública_Energia Elétrica_Energia Elétrica</v>
       </c>
@@ -4765,14 +4764,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>196</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" t="s">
         <v>195</v>
       </c>
-      <c r="C88" s="3" t="str">
+      <c r="C88" t="str">
         <f t="shared" si="1"/>
         <v>Consumo Cíclico_Tecidos. Vestuário e Calçados_Fios e Tecidos</v>
       </c>
@@ -4786,14 +4785,14 @@
         <v>197</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>196</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" t="s">
         <v>198</v>
       </c>
-      <c r="C89" s="3" t="str">
+      <c r="C89" t="str">
         <f t="shared" si="1"/>
         <v>Consumo Cíclico_Tecidos. Vestuário e Calçados_Fios e Tecidos</v>
       </c>
@@ -4811,10 +4810,10 @@
       <c r="A90" t="s">
         <v>200</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" t="s">
         <v>199</v>
       </c>
-      <c r="C90" s="3" t="str">
+      <c r="C90" t="str">
         <f t="shared" si="1"/>
         <v>Utilidade Pública_Energia Elétrica_Energia Elétrica</v>
       </c>
@@ -4828,14 +4827,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>202</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" t="s">
         <v>201</v>
       </c>
-      <c r="C91" s="3" t="str">
+      <c r="C91" t="str">
         <f t="shared" si="1"/>
         <v>Utilidade Pública_Gás_Gás</v>
       </c>
@@ -4849,14 +4848,14 @@
         <v>203</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>205</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" t="s">
         <v>204</v>
       </c>
-      <c r="C92" s="3" t="str">
+      <c r="C92" t="str">
         <f t="shared" si="1"/>
         <v>Consumo Cíclico_Comércio_Tecidos. Vestuário e Calçados</v>
       </c>
@@ -4870,14 +4869,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>205</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" t="s">
         <v>206</v>
       </c>
-      <c r="C93" s="3" t="str">
+      <c r="C93" t="str">
         <f t="shared" si="1"/>
         <v>Consumo Cíclico_Comércio_Tecidos. Vestuário e Calçados</v>
       </c>
@@ -4891,14 +4890,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>810</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" t="s">
         <v>207</v>
       </c>
-      <c r="C94" s="3" t="str">
+      <c r="C94" t="str">
         <f t="shared" si="1"/>
         <v>Financeiro_Serviços Financeiros Diversos_Serviços Financeiros Diversos</v>
       </c>
@@ -4912,14 +4911,14 @@
         <v>91</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>804</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" t="s">
         <v>208</v>
       </c>
-      <c r="C95" s="3" t="str">
+      <c r="C95" t="str">
         <f t="shared" si="1"/>
         <v>Financeiro_Serviços Financeiros Diversos_Serviços Financeiros Diversos</v>
       </c>
@@ -4937,10 +4936,10 @@
       <c r="A96" t="s">
         <v>210</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" t="s">
         <v>209</v>
       </c>
-      <c r="C96" s="3" t="str">
+      <c r="C96" t="str">
         <f t="shared" si="1"/>
         <v>Utilidade Pública_Energia Elétrica_Energia Elétrica</v>
       </c>
@@ -4958,10 +4957,10 @@
       <c r="A97" t="s">
         <v>210</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" t="s">
         <v>211</v>
       </c>
-      <c r="C97" s="3" t="str">
+      <c r="C97" t="str">
         <f t="shared" si="1"/>
         <v>Utilidade Pública_Energia Elétrica_Energia Elétrica</v>
       </c>
@@ -4979,10 +4978,10 @@
       <c r="A98" t="s">
         <v>213</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" t="s">
         <v>212</v>
       </c>
-      <c r="C98" s="3" t="str">
+      <c r="C98" t="str">
         <f t="shared" si="1"/>
         <v>Utilidade Pública_Energia Elétrica_Energia Elétrica</v>
       </c>
@@ -5000,10 +4999,10 @@
       <c r="A99" t="s">
         <v>213</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" t="s">
         <v>214</v>
       </c>
-      <c r="C99" s="3" t="str">
+      <c r="C99" t="str">
         <f t="shared" si="1"/>
         <v>Utilidade Pública_Energia Elétrica_Energia Elétrica</v>
       </c>
@@ -5017,14 +5016,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>216</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" t="s">
         <v>215</v>
       </c>
-      <c r="C100" s="3" t="str">
+      <c r="C100" t="str">
         <f t="shared" si="1"/>
         <v>Materiais Básicos_Mineração_Minerais Metálicos</v>
       </c>
@@ -5042,10 +5041,10 @@
       <c r="A101" t="s">
         <v>218</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" t="s">
         <v>217</v>
       </c>
-      <c r="C101" s="3" t="str">
+      <c r="C101" t="str">
         <f t="shared" si="1"/>
         <v>Utilidade Pública_Energia Elétrica_Energia Elétrica</v>
       </c>
@@ -5059,14 +5058,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>220</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" t="s">
         <v>219</v>
       </c>
-      <c r="C102" s="3" t="str">
+      <c r="C102" t="str">
         <f t="shared" si="1"/>
         <v>Consumo Cíclico_Diversos_Serviços Educacionais</v>
       </c>
@@ -5084,10 +5083,10 @@
       <c r="A103" t="s">
         <v>222</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B103" t="s">
         <v>221</v>
       </c>
-      <c r="C103" s="3" t="str">
+      <c r="C103" t="str">
         <f t="shared" si="1"/>
         <v>Utilidade Pública_Energia Elétrica_Energia Elétrica</v>
       </c>
@@ -5105,10 +5104,10 @@
       <c r="A104" t="s">
         <v>225</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" t="s">
         <v>223</v>
       </c>
-      <c r="C104" s="3" t="str">
+      <c r="C104" t="str">
         <f t="shared" si="1"/>
         <v>Utilidade Pública_Energia Elétrica_Energia Elétrica</v>
       </c>
@@ -5126,10 +5125,10 @@
       <c r="A105" t="s">
         <v>225</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" t="s">
         <v>224</v>
       </c>
-      <c r="C105" s="3" t="str">
+      <c r="C105" t="str">
         <f t="shared" si="1"/>
         <v>Utilidade Pública_Energia Elétrica_Energia Elétrica</v>
       </c>
@@ -5147,10 +5146,10 @@
       <c r="A106" t="s">
         <v>225</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B106" t="s">
         <v>226</v>
       </c>
-      <c r="C106" s="3" t="str">
+      <c r="C106" t="str">
         <f t="shared" si="1"/>
         <v>Utilidade Pública_Energia Elétrica_Energia Elétrica</v>
       </c>
@@ -5164,14 +5163,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>228</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B107" t="s">
         <v>227</v>
       </c>
-      <c r="C107" s="3" t="str">
+      <c r="C107" t="str">
         <f t="shared" si="1"/>
         <v>Consumo não Cíclico_Comércio e Distribuição_Alimentos</v>
       </c>
@@ -5185,14 +5184,14 @@
         <v>72</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>823</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B108" t="s">
         <v>229</v>
       </c>
-      <c r="C108" s="3" t="str">
+      <c r="C108" t="str">
         <f t="shared" si="1"/>
         <v>Financeiro_Intermediários Financeiros_Soc. Crédito e Financiamento</v>
       </c>
@@ -5206,14 +5205,14 @@
         <v>500</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>823</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B109" t="s">
         <v>230</v>
       </c>
-      <c r="C109" s="3" t="str">
+      <c r="C109" t="str">
         <f t="shared" si="1"/>
         <v>Financeiro_Intermediários Financeiros_Soc. Crédito e Financiamento</v>
       </c>
@@ -5227,14 +5226,14 @@
         <v>500</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>232</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B110" t="s">
         <v>231</v>
       </c>
-      <c r="C110" s="3" t="str">
+      <c r="C110" t="str">
         <f t="shared" si="1"/>
         <v>Materiais Básicos_Químicos_Químicos Diversos</v>
       </c>
@@ -5248,14 +5247,14 @@
         <v>233</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>232</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B111" t="s">
         <v>234</v>
       </c>
-      <c r="C111" s="3" t="str">
+      <c r="C111" t="str">
         <f t="shared" si="1"/>
         <v>Materiais Básicos_Químicos_Químicos Diversos</v>
       </c>
@@ -5269,14 +5268,14 @@
         <v>233</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>824</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B112" t="s">
         <v>235</v>
       </c>
-      <c r="C112" s="3" t="str">
+      <c r="C112" t="str">
         <f t="shared" si="1"/>
         <v>Financeiro_Previdência e Seguros_Seguradoras</v>
       </c>
@@ -5290,14 +5289,14 @@
         <v>106</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>237</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B113" t="s">
         <v>236</v>
       </c>
-      <c r="C113" s="3" t="str">
+      <c r="C113" t="str">
         <f t="shared" si="1"/>
         <v>Petróleo. Gás e Biocombustíveis_Petróleo. Gás e Biocombustíveis_Exploração. Refino e Distribuição</v>
       </c>
@@ -5311,14 +5310,14 @@
         <v>239</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>241</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B114" t="s">
         <v>240</v>
       </c>
-      <c r="C114" s="3" t="str">
+      <c r="C114" t="str">
         <f t="shared" si="1"/>
         <v>Consumo Cíclico_Diversos_Serviços Educacionais</v>
       </c>
@@ -5332,14 +5331,14 @@
         <v>64</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>243</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B115" t="s">
         <v>242</v>
       </c>
-      <c r="C115" s="3" t="str">
+      <c r="C115" t="str">
         <f t="shared" si="1"/>
         <v>Utilidade Pública_Água e Saneamento_Água e Saneamento</v>
       </c>
@@ -5353,14 +5352,14 @@
         <v>58</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>245</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B116" t="s">
         <v>244</v>
       </c>
-      <c r="C116" s="3" t="str">
+      <c r="C116" t="str">
         <f t="shared" si="1"/>
         <v>Materiais Básicos_Siderurgia e Metalurgia_Siderurgia</v>
       </c>
@@ -5378,10 +5377,10 @@
       <c r="A117" t="s">
         <v>811</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B117" t="s">
         <v>248</v>
       </c>
-      <c r="C117" s="3" t="str">
+      <c r="C117" t="str">
         <f t="shared" si="1"/>
         <v>Utilidade Pública_Energia Elétrica_Energia Elétrica</v>
       </c>
@@ -5395,14 +5394,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>250</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B118" t="s">
         <v>249</v>
       </c>
-      <c r="C118" s="3" t="str">
+      <c r="C118" t="str">
         <f t="shared" si="1"/>
         <v>Financeiro_Serviços Financeiros Diversos_Serviços Financeiros Diversos</v>
       </c>
@@ -5416,14 +5415,14 @@
         <v>91</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>252</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B119" t="s">
         <v>251</v>
       </c>
-      <c r="C119" s="3" t="str">
+      <c r="C119" t="str">
         <f t="shared" si="1"/>
         <v>Consumo Cíclico_Tecidos. Vestuário e Calçados_Fios e Tecidos</v>
       </c>
@@ -5437,14 +5436,14 @@
         <v>197</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>806</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B120" t="s">
         <v>253</v>
       </c>
-      <c r="C120" s="3" t="str">
+      <c r="C120" t="str">
         <f t="shared" si="1"/>
         <v>Consumo Cíclico_Tecidos. Vestuário e Calçados_Fios e Tecidos</v>
       </c>
@@ -5458,14 +5457,14 @@
         <v>197</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>806</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B121" t="s">
         <v>254</v>
       </c>
-      <c r="C121" s="3" t="str">
+      <c r="C121" t="str">
         <f t="shared" si="1"/>
         <v>Consumo Cíclico_Tecidos. Vestuário e Calçados_Fios e Tecidos</v>
       </c>
@@ -5479,14 +5478,14 @@
         <v>197</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>256</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B122" t="s">
         <v>255</v>
       </c>
-      <c r="C122" s="3" t="str">
+      <c r="C122" t="str">
         <f t="shared" si="1"/>
         <v>Consumo Cíclico_Tecidos. Vestuário e Calçados_Fios e Tecidos</v>
       </c>
@@ -5500,14 +5499,14 @@
         <v>197</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>256</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B123" t="s">
         <v>257</v>
       </c>
-      <c r="C123" s="3" t="str">
+      <c r="C123" t="str">
         <f t="shared" si="1"/>
         <v>Consumo Cíclico_Tecidos. Vestuário e Calçados_Fios e Tecidos</v>
       </c>
@@ -5521,14 +5520,14 @@
         <v>197</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>259</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B124" t="s">
         <v>258</v>
       </c>
-      <c r="C124" s="3" t="str">
+      <c r="C124" t="str">
         <f t="shared" si="1"/>
         <v>Consumo Cíclico_Construção Civil_Incorporações</v>
       </c>
@@ -5542,14 +5541,14 @@
         <v>80</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>261</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B125" t="s">
         <v>260</v>
       </c>
-      <c r="C125" s="3" t="str">
+      <c r="C125" t="str">
         <f t="shared" si="1"/>
         <v>Consumo Cíclico_Viagens e Lazer_Viagens e Turismo</v>
       </c>
@@ -5563,14 +5562,14 @@
         <v>262</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>264</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B126" t="s">
         <v>263</v>
       </c>
-      <c r="C126" s="3" t="str">
+      <c r="C126" t="str">
         <f t="shared" si="1"/>
         <v>Financeiro_Previdência e Seguros_Seguradoras</v>
       </c>
@@ -5584,14 +5583,14 @@
         <v>106</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>266</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="B127" t="s">
         <v>265</v>
       </c>
-      <c r="C127" s="3" t="str">
+      <c r="C127" t="str">
         <f t="shared" si="1"/>
         <v>Consumo Cíclico_Construção Civil_Incorporações</v>
       </c>
@@ -5605,14 +5604,14 @@
         <v>80</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>268</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="B128" t="s">
         <v>267</v>
       </c>
-      <c r="C128" s="3" t="str">
+      <c r="C128" t="str">
         <f t="shared" si="1"/>
         <v>Saúde_Serv.Méd.Hospit..Análises e Diagnósticos_Serv.Méd.Hospit..Análises e Diagnósticos</v>
       </c>
@@ -5626,14 +5625,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>270</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="B129" t="s">
         <v>269</v>
       </c>
-      <c r="C129" s="3" t="str">
+      <c r="C129" t="str">
         <f t="shared" si="1"/>
         <v>Comunicações_Telecomunicações_Telecomunicações</v>
       </c>
@@ -5647,14 +5646,14 @@
         <v>272</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>274</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="B130" t="s">
         <v>273</v>
       </c>
-      <c r="C130" s="3" t="str">
+      <c r="C130" t="str">
         <f t="shared" si="1"/>
         <v>Materiais Básicos_Químicos_Petroquímicos</v>
       </c>
@@ -5668,14 +5667,14 @@
         <v>167</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>274</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="B131" t="s">
         <v>275</v>
       </c>
-      <c r="C131" s="3" t="str">
+      <c r="C131" t="str">
         <f t="shared" ref="C131:C194" si="2">D131 &amp; "_" &amp; E131 &amp; "_" &amp; F131</f>
         <v>Materiais Básicos_Químicos_Petroquímicos</v>
       </c>
@@ -5689,14 +5688,14 @@
         <v>167</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>277</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="B132" t="s">
         <v>276</v>
       </c>
-      <c r="C132" s="3" t="str">
+      <c r="C132" t="str">
         <f t="shared" si="2"/>
         <v>Consumo Cíclico_Construção Civil_Incorporações</v>
       </c>
@@ -5710,14 +5709,14 @@
         <v>80</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>279</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="B133" t="s">
         <v>278</v>
       </c>
-      <c r="C133" s="3" t="str">
+      <c r="C133" t="str">
         <f t="shared" si="2"/>
         <v>Saúde_Comércio e Distribuição_Medicamentos e Outros Produtos</v>
       </c>
@@ -5731,14 +5730,14 @@
         <v>121</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>281</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="B134" t="s">
         <v>280</v>
       </c>
-      <c r="C134" s="3" t="str">
+      <c r="C134" t="str">
         <f t="shared" si="2"/>
         <v>Consumo Cíclico_Tecidos. Vestuário e Calçados_Fios e Tecidos</v>
       </c>
@@ -5752,14 +5751,14 @@
         <v>197</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>283</v>
       </c>
-      <c r="B135" s="3" t="s">
+      <c r="B135" t="s">
         <v>282</v>
       </c>
-      <c r="C135" s="3" t="str">
+      <c r="C135" t="str">
         <f t="shared" si="2"/>
         <v>Consumo Cíclico_Diversos_Programas de Fidelização</v>
       </c>
@@ -5773,14 +5772,14 @@
         <v>284</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>286</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="B136" t="s">
         <v>285</v>
       </c>
-      <c r="C136" s="3" t="str">
+      <c r="C136" t="str">
         <f t="shared" si="2"/>
         <v>Materiais Básicos_Madeira e Papel_Madeira</v>
       </c>
@@ -5794,14 +5793,14 @@
         <v>288</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>290</v>
       </c>
-      <c r="B137" s="3" t="s">
+      <c r="B137" t="s">
         <v>289</v>
       </c>
-      <c r="C137" s="3" t="str">
+      <c r="C137" t="str">
         <f t="shared" si="2"/>
         <v>Bens Industriais_Máquinas e Equipamentos_Máq. e Equip. Industriais</v>
       </c>
@@ -5815,14 +5814,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>292</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="B138" t="s">
         <v>291</v>
       </c>
-      <c r="C138" s="3" t="str">
+      <c r="C138" t="str">
         <f t="shared" si="2"/>
         <v>Bens Industriais_Transporte_Exploração de Rodovias</v>
       </c>
@@ -5840,10 +5839,10 @@
       <c r="A139" t="s">
         <v>295</v>
       </c>
-      <c r="B139" s="3" t="s">
+      <c r="B139" t="s">
         <v>294</v>
       </c>
-      <c r="C139" s="3" t="str">
+      <c r="C139" t="str">
         <f t="shared" si="2"/>
         <v>Utilidade Pública_Energia Elétrica_Energia Elétrica</v>
       </c>
@@ -5861,10 +5860,10 @@
       <c r="A140" t="s">
         <v>297</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="B140" t="s">
         <v>296</v>
       </c>
-      <c r="C140" s="3" t="str">
+      <c r="C140" t="str">
         <f t="shared" si="2"/>
         <v>Utilidade Pública_Energia Elétrica_Energia Elétrica</v>
       </c>
@@ -5882,10 +5881,10 @@
       <c r="A141" t="s">
         <v>299</v>
       </c>
-      <c r="B141" s="3" t="s">
+      <c r="B141" t="s">
         <v>298</v>
       </c>
-      <c r="C141" s="3" t="str">
+      <c r="C141" t="str">
         <f t="shared" si="2"/>
         <v>Utilidade Pública_Energia Elétrica_Energia Elétrica</v>
       </c>
@@ -5903,10 +5902,10 @@
       <c r="A142" t="s">
         <v>299</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="B142" t="s">
         <v>300</v>
       </c>
-      <c r="C142" s="3" t="str">
+      <c r="C142" t="str">
         <f t="shared" si="2"/>
         <v>Utilidade Pública_Energia Elétrica_Energia Elétrica</v>
       </c>
@@ -5924,10 +5923,10 @@
       <c r="A143" t="s">
         <v>299</v>
       </c>
-      <c r="B143" s="3" t="s">
+      <c r="B143" t="s">
         <v>301</v>
       </c>
-      <c r="C143" s="3" t="str">
+      <c r="C143" t="str">
         <f t="shared" si="2"/>
         <v>Utilidade Pública_Energia Elétrica_Energia Elétrica</v>
       </c>
@@ -5941,14 +5940,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>303</v>
       </c>
-      <c r="B144" s="3" t="s">
+      <c r="B144" t="s">
         <v>302</v>
       </c>
-      <c r="C144" s="3" t="str">
+      <c r="C144" t="str">
         <f t="shared" si="2"/>
         <v>Comunicações_Mídia_Publicidade e Propaganda</v>
       </c>
@@ -5966,10 +5965,10 @@
       <c r="A145" t="s">
         <v>307</v>
       </c>
-      <c r="B145" s="3" t="s">
+      <c r="B145" t="s">
         <v>306</v>
       </c>
-      <c r="C145" s="3" t="str">
+      <c r="C145" t="str">
         <f t="shared" si="2"/>
         <v>Utilidade Pública_Energia Elétrica_Energia Elétrica</v>
       </c>
@@ -5983,14 +5982,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>309</v>
       </c>
-      <c r="B146" s="3" t="s">
+      <c r="B146" t="s">
         <v>308</v>
       </c>
-      <c r="C146" s="3" t="str">
+      <c r="C146" t="str">
         <f t="shared" si="2"/>
         <v>Bens Industriais_Material de Transporte_Material Aeronáutico e de Defesa</v>
       </c>
@@ -6004,14 +6003,14 @@
         <v>311</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>805</v>
       </c>
-      <c r="B147" s="3" t="s">
+      <c r="B147" t="s">
         <v>312</v>
       </c>
-      <c r="C147" s="3" t="str">
+      <c r="C147" t="str">
         <f t="shared" si="2"/>
         <v>Petróleo. Gás e Biocombustíveis_Petróleo. Gás e Biocombustíveis_Exploração. Refino e Distribuição</v>
       </c>
@@ -6029,10 +6028,10 @@
       <c r="A148" t="s">
         <v>807</v>
       </c>
-      <c r="B148" s="3" t="s">
+      <c r="B148" t="s">
         <v>313</v>
       </c>
-      <c r="C148" s="3" t="str">
+      <c r="C148" t="str">
         <f t="shared" si="2"/>
         <v>Utilidade Pública_Energia Elétrica_Energia Elétrica</v>
       </c>
@@ -6050,10 +6049,10 @@
       <c r="A149" t="s">
         <v>315</v>
       </c>
-      <c r="B149" s="3" t="s">
+      <c r="B149" t="s">
         <v>314</v>
       </c>
-      <c r="C149" s="3" t="str">
+      <c r="C149" t="str">
         <f t="shared" si="2"/>
         <v>Utilidade Pública_Energia Elétrica_Energia Elétrica</v>
       </c>
@@ -6071,10 +6070,10 @@
       <c r="A150" t="s">
         <v>317</v>
       </c>
-      <c r="B150" s="3" t="s">
+      <c r="B150" t="s">
         <v>316</v>
       </c>
-      <c r="C150" s="3" t="str">
+      <c r="C150" t="str">
         <f t="shared" si="2"/>
         <v>Utilidade Pública_Energia Elétrica_Energia Elétrica</v>
       </c>
@@ -6092,10 +6091,10 @@
       <c r="A151" t="s">
         <v>317</v>
       </c>
-      <c r="B151" s="3" t="s">
+      <c r="B151" t="s">
         <v>318</v>
       </c>
-      <c r="C151" s="3" t="str">
+      <c r="C151" t="str">
         <f t="shared" si="2"/>
         <v>Utilidade Pública_Energia Elétrica_Energia Elétrica</v>
       </c>
@@ -6113,10 +6112,10 @@
       <c r="A152" t="s">
         <v>317</v>
       </c>
-      <c r="B152" s="3" t="s">
+      <c r="B152" t="s">
         <v>319</v>
       </c>
-      <c r="C152" s="3" t="str">
+      <c r="C152" t="str">
         <f t="shared" si="2"/>
         <v>Utilidade Pública_Energia Elétrica_Energia Elétrica</v>
       </c>
@@ -6130,14 +6129,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>321</v>
       </c>
-      <c r="B153" s="3" t="s">
+      <c r="B153" t="s">
         <v>320</v>
       </c>
-      <c r="C153" s="3" t="str">
+      <c r="C153" t="str">
         <f t="shared" si="2"/>
         <v>Tecnologia da Informação_Programas e Serviços_Programas e Serviços</v>
       </c>
@@ -6151,14 +6150,14 @@
         <v>138</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>323</v>
       </c>
-      <c r="B154" s="3" t="s">
+      <c r="B154" t="s">
         <v>322</v>
       </c>
-      <c r="C154" s="3" t="str">
+      <c r="C154" t="str">
         <f t="shared" si="2"/>
         <v>Bens Industriais_Comércio_Material de Transporte</v>
       </c>
@@ -6176,10 +6175,10 @@
       <c r="A155" t="s">
         <v>325</v>
       </c>
-      <c r="B155" s="3" t="s">
+      <c r="B155" t="s">
         <v>324</v>
       </c>
-      <c r="C155" s="3" t="str">
+      <c r="C155" t="str">
         <f t="shared" si="2"/>
         <v>Utilidade Pública_Energia Elétrica_Energia Elétrica</v>
       </c>
@@ -6197,10 +6196,10 @@
       <c r="A156" t="s">
         <v>327</v>
       </c>
-      <c r="B156" s="3" t="s">
+      <c r="B156" t="s">
         <v>326</v>
       </c>
-      <c r="C156" s="3" t="str">
+      <c r="C156" t="str">
         <f t="shared" si="2"/>
         <v>Utilidade Pública_Energia Elétrica_Energia Elétrica</v>
       </c>
@@ -6218,10 +6217,10 @@
       <c r="A157" t="s">
         <v>329</v>
       </c>
-      <c r="B157" s="3" t="s">
+      <c r="B157" t="s">
         <v>328</v>
       </c>
-      <c r="C157" s="3" t="str">
+      <c r="C157" t="str">
         <f t="shared" si="2"/>
         <v>Utilidade Pública_Energia Elétrica_Energia Elétrica</v>
       </c>
@@ -6235,14 +6234,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>331</v>
       </c>
-      <c r="B158" s="3" t="s">
+      <c r="B158" t="s">
         <v>330</v>
       </c>
-      <c r="C158" s="3" t="str">
+      <c r="C158" t="str">
         <f t="shared" si="2"/>
         <v>Consumo Cíclico_Comércio_Produtos Diversos</v>
       </c>
@@ -6256,14 +6255,14 @@
         <v>60</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>333</v>
       </c>
-      <c r="B159" s="3" t="s">
+      <c r="B159" t="s">
         <v>332</v>
       </c>
-      <c r="C159" s="3" t="str">
+      <c r="C159" t="str">
         <f t="shared" si="2"/>
         <v>Consumo Cíclico_Viagens e Lazer_Brinquedos e Jogos</v>
       </c>
@@ -6277,14 +6276,14 @@
         <v>334</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>333</v>
       </c>
-      <c r="B160" s="3" t="s">
+      <c r="B160" t="s">
         <v>335</v>
       </c>
-      <c r="C160" s="3" t="str">
+      <c r="C160" t="str">
         <f t="shared" si="2"/>
         <v>Consumo Cíclico_Viagens e Lazer_Brinquedos e Jogos</v>
       </c>
@@ -6298,14 +6297,14 @@
         <v>334</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>337</v>
       </c>
-      <c r="B161" s="3" t="s">
+      <c r="B161" t="s">
         <v>336</v>
       </c>
-      <c r="C161" s="3" t="str">
+      <c r="C161" t="str">
         <f t="shared" si="2"/>
         <v>Bens Industriais_Construção e Engenharia_Produtos para Construção</v>
       </c>
@@ -6319,14 +6318,14 @@
         <v>338</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>340</v>
       </c>
-      <c r="B162" s="3" t="s">
+      <c r="B162" t="s">
         <v>339</v>
       </c>
-      <c r="C162" s="3" t="str">
+      <c r="C162" t="str">
         <f t="shared" si="2"/>
         <v>Materiais Básicos_Madeira e Papel_Madeira</v>
       </c>
@@ -6340,14 +6339,14 @@
         <v>288</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>340</v>
       </c>
-      <c r="B163" s="3" t="s">
+      <c r="B163" t="s">
         <v>341</v>
       </c>
-      <c r="C163" s="3" t="str">
+      <c r="C163" t="str">
         <f t="shared" si="2"/>
         <v>Materiais Básicos_Madeira e Papel_Madeira</v>
       </c>
@@ -6361,14 +6360,14 @@
         <v>288</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>343</v>
       </c>
-      <c r="B164" s="3" t="s">
+      <c r="B164" t="s">
         <v>342</v>
       </c>
-      <c r="C164" s="3" t="str">
+      <c r="C164" t="str">
         <f t="shared" si="2"/>
         <v>Consumo Cíclico_Construção Civil_Incorporações</v>
       </c>
@@ -6382,14 +6381,14 @@
         <v>80</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>345</v>
       </c>
-      <c r="B165" s="3" t="s">
+      <c r="B165" t="s">
         <v>344</v>
       </c>
-      <c r="C165" s="3" t="str">
+      <c r="C165" t="str">
         <f t="shared" si="2"/>
         <v>Consumo Cíclico_Construção Civil_Incorporações</v>
       </c>
@@ -6403,14 +6402,14 @@
         <v>80</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>347</v>
       </c>
-      <c r="B166" s="3" t="s">
+      <c r="B166" t="s">
         <v>346</v>
       </c>
-      <c r="C166" s="3" t="str">
+      <c r="C166" t="str">
         <f t="shared" si="2"/>
         <v>Materiais Básicos_Siderurgia e Metalurgia_Siderurgia</v>
       </c>
@@ -6424,14 +6423,14 @@
         <v>247</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>349</v>
       </c>
-      <c r="B167" s="3" t="s">
+      <c r="B167" t="s">
         <v>348</v>
       </c>
-      <c r="C167" s="3" t="str">
+      <c r="C167" t="str">
         <f t="shared" si="2"/>
         <v>Materiais Básicos_Químicos_Fertilizantes e Defensivos</v>
       </c>
@@ -6445,14 +6444,14 @@
         <v>350</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>352</v>
       </c>
-      <c r="B168" s="3" t="s">
+      <c r="B168" t="s">
         <v>351</v>
       </c>
-      <c r="C168" s="3" t="str">
+      <c r="C168" t="str">
         <f t="shared" si="2"/>
         <v>Comunicações_Telecomunicações_Telecomunicações</v>
       </c>
@@ -6466,14 +6465,14 @@
         <v>272</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>354</v>
       </c>
-      <c r="B169" s="3" t="s">
+      <c r="B169" t="s">
         <v>353</v>
       </c>
-      <c r="C169" s="3" t="str">
+      <c r="C169" t="str">
         <f t="shared" si="2"/>
         <v>Saúde_Serv.Méd.Hospit..Análises e Diagnósticos_Serv.Méd.Hospit..Análises e Diagnósticos</v>
       </c>
@@ -6487,14 +6486,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>356</v>
       </c>
-      <c r="B170" s="3" t="s">
+      <c r="B170" t="s">
         <v>355</v>
       </c>
-      <c r="C170" s="3" t="str">
+      <c r="C170" t="str">
         <f t="shared" si="2"/>
         <v>Bens Industriais_Material de Transporte_Material Rodoviário</v>
       </c>
@@ -6508,14 +6507,14 @@
         <v>357</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>825</v>
       </c>
-      <c r="B171" s="3" t="s">
+      <c r="B171" t="s">
         <v>358</v>
       </c>
-      <c r="C171" s="3" t="str">
+      <c r="C171" t="str">
         <f t="shared" si="2"/>
         <v>Consumo não Cíclico_Agropecuária_Agricultura</v>
       </c>
@@ -6533,10 +6532,10 @@
       <c r="A172" t="s">
         <v>360</v>
       </c>
-      <c r="B172" s="3" t="s">
+      <c r="B172" t="s">
         <v>359</v>
       </c>
-      <c r="C172" s="3" t="str">
+      <c r="C172" t="str">
         <f t="shared" si="2"/>
         <v>Utilidade Pública_Energia Elétrica_Energia Elétrica</v>
       </c>
@@ -6554,10 +6553,10 @@
       <c r="A173" t="s">
         <v>360</v>
       </c>
-      <c r="B173" s="3" t="s">
+      <c r="B173" t="s">
         <v>361</v>
       </c>
-      <c r="C173" s="3" t="str">
+      <c r="C173" t="str">
         <f t="shared" si="2"/>
         <v>Utilidade Pública_Energia Elétrica_Energia Elétrica</v>
       </c>
@@ -6571,14 +6570,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>363</v>
       </c>
-      <c r="B174" s="3" t="s">
+      <c r="B174" t="s">
         <v>362</v>
       </c>
-      <c r="C174" s="3" t="str">
+      <c r="C174" t="str">
         <f t="shared" si="2"/>
         <v>Consumo Cíclico_Construção Civil_Incorporações</v>
       </c>
@@ -6592,14 +6591,14 @@
         <v>80</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>365</v>
       </c>
-      <c r="B175" s="3" t="s">
+      <c r="B175" t="s">
         <v>364</v>
       </c>
-      <c r="C175" s="3" t="str">
+      <c r="C175" t="str">
         <f t="shared" si="2"/>
         <v>Materiais Básicos_Siderurgia e Metalurgia_Siderurgia</v>
       </c>
@@ -6613,14 +6612,14 @@
         <v>247</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>365</v>
       </c>
-      <c r="B176" s="3" t="s">
+      <c r="B176" t="s">
         <v>366</v>
       </c>
-      <c r="C176" s="3" t="str">
+      <c r="C176" t="str">
         <f t="shared" si="2"/>
         <v>Materiais Básicos_Siderurgia e Metalurgia_Siderurgia</v>
       </c>
@@ -6634,14 +6633,14 @@
         <v>247</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>368</v>
       </c>
-      <c r="B177" s="3" t="s">
+      <c r="B177" t="s">
         <v>367</v>
       </c>
-      <c r="C177" s="3" t="str">
+      <c r="C177" t="str">
         <f t="shared" si="2"/>
         <v>Bens Industriais_Serviços_Serviços Diversos</v>
       </c>
@@ -6655,14 +6654,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>370</v>
       </c>
-      <c r="B178" s="3" t="s">
+      <c r="B178" t="s">
         <v>369</v>
       </c>
-      <c r="C178" s="3" t="str">
+      <c r="C178" t="str">
         <f t="shared" si="2"/>
         <v>Consumo não Cíclico_Comércio e Distribuição_Alimentos</v>
       </c>
@@ -6676,14 +6675,14 @@
         <v>72</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>372</v>
       </c>
-      <c r="B179" s="3" t="s">
+      <c r="B179" t="s">
         <v>371</v>
       </c>
-      <c r="C179" s="3" t="str">
+      <c r="C179" t="str">
         <f t="shared" si="2"/>
         <v>Materiais Básicos_Siderurgia e Metalurgia_Siderurgia</v>
       </c>
@@ -6697,14 +6696,14 @@
         <v>247</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>372</v>
       </c>
-      <c r="B180" s="3" t="s">
+      <c r="B180" t="s">
         <v>373</v>
       </c>
-      <c r="C180" s="3" t="str">
+      <c r="C180" t="str">
         <f t="shared" si="2"/>
         <v>Materiais Básicos_Siderurgia e Metalurgia_Siderurgia</v>
       </c>
@@ -6718,14 +6717,14 @@
         <v>247</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>375</v>
       </c>
-      <c r="B181" s="3" t="s">
+      <c r="B181" t="s">
         <v>374</v>
       </c>
-      <c r="C181" s="3" t="str">
+      <c r="C181" t="str">
         <f t="shared" si="2"/>
         <v>Bens Industriais_Transporte_Transporte Aéreo</v>
       </c>
@@ -6739,14 +6738,14 @@
         <v>89</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>377</v>
       </c>
-      <c r="B182" s="3" t="s">
+      <c r="B182" t="s">
         <v>376</v>
       </c>
-      <c r="C182" s="3" t="str">
+      <c r="C182" t="str">
         <f t="shared" si="2"/>
         <v>Consumo Cíclico_Tecidos. Vestuário e Calçados_Calçados</v>
       </c>
@@ -6760,14 +6759,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>379</v>
       </c>
-      <c r="B183" s="3" t="s">
+      <c r="B183" t="s">
         <v>378</v>
       </c>
-      <c r="C183" s="3" t="str">
+      <c r="C183" t="str">
         <f t="shared" si="2"/>
         <v>Financeiro_Exploração de Imóveis_Exploração de Imóveis</v>
       </c>
@@ -6781,14 +6780,14 @@
         <v>380</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>382</v>
       </c>
-      <c r="B184" s="3" t="s">
+      <c r="B184" t="s">
         <v>381</v>
       </c>
-      <c r="C184" s="3" t="str">
+      <c r="C184" t="str">
         <f t="shared" si="2"/>
         <v>Consumo Cíclico_Comércio_Tecidos. Vestuário e Calçados</v>
       </c>
@@ -6802,14 +6801,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>384</v>
       </c>
-      <c r="B185" s="3" t="s">
+      <c r="B185" t="s">
         <v>383</v>
       </c>
-      <c r="C185" s="3" t="str">
+      <c r="C185" t="str">
         <f t="shared" si="2"/>
         <v>Bens Industriais_Construção e Engenharia_Produtos para Construção</v>
       </c>
@@ -6823,14 +6822,14 @@
         <v>338</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>384</v>
       </c>
-      <c r="B186" s="3" t="s">
+      <c r="B186" t="s">
         <v>385</v>
       </c>
-      <c r="C186" s="3" t="str">
+      <c r="C186" t="str">
         <f t="shared" si="2"/>
         <v>Bens Industriais_Construção e Engenharia_Produtos para Construção</v>
       </c>
@@ -6844,14 +6843,14 @@
         <v>338</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>387</v>
       </c>
-      <c r="B187" s="3" t="s">
+      <c r="B187" t="s">
         <v>386</v>
       </c>
-      <c r="C187" s="3" t="str">
+      <c r="C187" t="str">
         <f t="shared" si="2"/>
         <v>Saúde_Serv.Méd.Hospit..Análises e Diagnósticos_Serv.Méd.Hospit..Análises e Diagnósticos</v>
       </c>
@@ -6865,14 +6864,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>389</v>
       </c>
-      <c r="B188" s="3" t="s">
+      <c r="B188" t="s">
         <v>388</v>
       </c>
-      <c r="C188" s="3" t="str">
+      <c r="C188" t="str">
         <f t="shared" si="2"/>
         <v>Consumo Cíclico_Construção Civil_Incorporações</v>
       </c>
@@ -6886,14 +6885,14 @@
         <v>80</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>391</v>
       </c>
-      <c r="B189" s="3" t="s">
+      <c r="B189" t="s">
         <v>390</v>
       </c>
-      <c r="C189" s="3" t="str">
+      <c r="C189" t="str">
         <f t="shared" si="2"/>
         <v>Financeiro_Exploração de Imóveis_Exploração de Imóveis</v>
       </c>
@@ -6907,14 +6906,14 @@
         <v>380</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>393</v>
       </c>
-      <c r="B190" s="3" t="s">
+      <c r="B190" t="s">
         <v>392</v>
       </c>
-      <c r="C190" s="3" t="str">
+      <c r="C190" t="str">
         <f t="shared" si="2"/>
         <v>Bens Industriais_Transporte_Transporte Hidroviário</v>
       </c>
@@ -6928,14 +6927,14 @@
         <v>394</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>396</v>
       </c>
-      <c r="B191" s="3" t="s">
+      <c r="B191" t="s">
         <v>395</v>
       </c>
-      <c r="C191" s="3" t="str">
+      <c r="C191" t="str">
         <f t="shared" si="2"/>
         <v>Financeiro_Exploração de Imóveis_Exploração de Imóveis</v>
       </c>
@@ -6949,14 +6948,14 @@
         <v>380</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>398</v>
       </c>
-      <c r="B192" s="3" t="s">
+      <c r="B192" t="s">
         <v>397</v>
       </c>
-      <c r="C192" s="3" t="str">
+      <c r="C192" t="str">
         <f t="shared" si="2"/>
         <v>Consumo Cíclico_Utilidades Domésticas_Utensílios Domésticos</v>
       </c>
@@ -6970,14 +6969,14 @@
         <v>400</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>402</v>
       </c>
-      <c r="B193" s="3" t="s">
+      <c r="B193" t="s">
         <v>401</v>
       </c>
-      <c r="C193" s="3" t="str">
+      <c r="C193" t="str">
         <f t="shared" si="2"/>
         <v>Consumo Cíclico_Hoteis e Restaurantes_Hotelaria</v>
       </c>
@@ -6991,14 +6990,14 @@
         <v>404</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>406</v>
       </c>
-      <c r="B194" s="3" t="s">
+      <c r="B194" t="s">
         <v>405</v>
       </c>
-      <c r="C194" s="3" t="str">
+      <c r="C194" t="str">
         <f t="shared" si="2"/>
         <v>Saúde_Comércio e Distribuição_Medicamentos e Outros Produtos</v>
       </c>
@@ -7012,14 +7011,14 @@
         <v>121</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>408</v>
       </c>
-      <c r="B195" s="3" t="s">
+      <c r="B195" t="s">
         <v>407</v>
       </c>
-      <c r="C195" s="3" t="str">
+      <c r="C195" t="str">
         <f t="shared" ref="C195:C258" si="3">D195 &amp; "_" &amp; E195 &amp; "_" &amp; F195</f>
         <v>Tecnologia da Informação_Programas e Serviços_Programas e Serviços</v>
       </c>
@@ -7033,14 +7032,14 @@
         <v>138</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>826</v>
       </c>
-      <c r="B196" s="3" t="s">
+      <c r="B196" t="s">
         <v>409</v>
       </c>
-      <c r="C196" s="3" t="str">
+      <c r="C196" t="str">
         <f t="shared" si="3"/>
         <v>Financeiro_Exploração de Imóveis_Exploração de Imóveis</v>
       </c>
@@ -7054,14 +7053,14 @@
         <v>380</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>411</v>
       </c>
-      <c r="B197" s="3" t="s">
+      <c r="B197" t="s">
         <v>410</v>
       </c>
-      <c r="C197" s="3" t="str">
+      <c r="C197" t="str">
         <f t="shared" si="3"/>
         <v>Financeiro_Exploração de Imóveis_Exploração de Imóveis</v>
       </c>
@@ -7075,14 +7074,14 @@
         <v>380</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>411</v>
       </c>
-      <c r="B198" s="3" t="s">
+      <c r="B198" t="s">
         <v>412</v>
       </c>
-      <c r="C198" s="3" t="str">
+      <c r="C198" t="str">
         <f t="shared" si="3"/>
         <v>Financeiro_Exploração de Imóveis_Exploração de Imóveis</v>
       </c>
@@ -7096,14 +7095,14 @@
         <v>380</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>411</v>
       </c>
-      <c r="B199" s="3" t="s">
+      <c r="B199" t="s">
         <v>413</v>
       </c>
-      <c r="C199" s="3" t="str">
+      <c r="C199" t="str">
         <f t="shared" si="3"/>
         <v>Financeiro_Exploração de Imóveis_Exploração de Imóveis</v>
       </c>
@@ -7117,14 +7116,14 @@
         <v>380</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>415</v>
       </c>
-      <c r="B200" s="3" t="s">
+      <c r="B200" t="s">
         <v>414</v>
       </c>
-      <c r="C200" s="3" t="str">
+      <c r="C200" t="str">
         <f t="shared" si="3"/>
         <v>Bens Industriais_Máquinas e Equipamentos_Máq. e Equip. Industriais</v>
       </c>
@@ -7138,14 +7137,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>415</v>
       </c>
-      <c r="B201" s="3" t="s">
+      <c r="B201" t="s">
         <v>416</v>
       </c>
-      <c r="C201" s="3" t="str">
+      <c r="C201" t="str">
         <f t="shared" si="3"/>
         <v>Bens Industriais_Máquinas e Equipamentos_Máq. e Equip. Industriais</v>
       </c>
@@ -7159,14 +7158,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>418</v>
       </c>
-      <c r="B202" s="3" t="s">
+      <c r="B202" t="s">
         <v>417</v>
       </c>
-      <c r="C202" s="3" t="str">
+      <c r="C202" t="str">
         <f t="shared" si="3"/>
         <v>Tecnologia da Informação_Computadores e Equipamentos_Computadores e Equipamentos</v>
       </c>
@@ -7180,14 +7179,14 @@
         <v>419</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>421</v>
       </c>
-      <c r="B203" s="3" t="s">
+      <c r="B203" t="s">
         <v>420</v>
       </c>
-      <c r="C203" s="3" t="str">
+      <c r="C203" t="str">
         <f t="shared" si="3"/>
         <v>Financeiro_Previdência e Seguros_Resseguradoras</v>
       </c>
@@ -7201,14 +7200,14 @@
         <v>422</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>424</v>
       </c>
-      <c r="B204" s="3" t="s">
+      <c r="B204" t="s">
         <v>423</v>
       </c>
-      <c r="C204" s="3" t="str">
+      <c r="C204" t="str">
         <f t="shared" si="3"/>
         <v>Financeiro_Holdings Diversificadas_Holdings Diversificadas</v>
       </c>
@@ -7222,14 +7221,14 @@
         <v>425</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>424</v>
       </c>
-      <c r="B205" s="3" t="s">
+      <c r="B205" t="s">
         <v>426</v>
       </c>
-      <c r="C205" s="3" t="str">
+      <c r="C205" t="str">
         <f t="shared" si="3"/>
         <v>Financeiro_Holdings Diversificadas_Holdings Diversificadas</v>
       </c>
@@ -7243,14 +7242,14 @@
         <v>425</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>428</v>
       </c>
-      <c r="B206" s="3" t="s">
+      <c r="B206" t="s">
         <v>427</v>
       </c>
-      <c r="C206" s="3" t="str">
+      <c r="C206" t="str">
         <f t="shared" si="3"/>
         <v>Financeiro_Intermediários Financeiros_Bancos</v>
       </c>
@@ -7264,14 +7263,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>428</v>
       </c>
-      <c r="B207" s="3" t="s">
+      <c r="B207" t="s">
         <v>429</v>
       </c>
-      <c r="C207" s="3" t="str">
+      <c r="C207" t="str">
         <f t="shared" si="3"/>
         <v>Financeiro_Intermediários Financeiros_Bancos</v>
       </c>
@@ -7285,14 +7284,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>431</v>
       </c>
-      <c r="B208" s="3" t="s">
+      <c r="B208" t="s">
         <v>430</v>
       </c>
-      <c r="C208" s="3" t="str">
+      <c r="C208" t="str">
         <f t="shared" si="3"/>
         <v>Consumo não Cíclico_Alimentos Processados_Açucar e Alcool</v>
       </c>
@@ -7306,14 +7305,14 @@
         <v>432</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>434</v>
       </c>
-      <c r="B209" s="3" t="s">
+      <c r="B209" t="s">
         <v>433</v>
       </c>
-      <c r="C209" s="3" t="str">
+      <c r="C209" t="str">
         <f t="shared" si="3"/>
         <v>Consumo não Cíclico_Alimentos Processados_Carnes e Derivados</v>
       </c>
@@ -7327,14 +7326,14 @@
         <v>113</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>436</v>
       </c>
-      <c r="B210" s="3" t="s">
+      <c r="B210" t="s">
         <v>435</v>
       </c>
-      <c r="C210" s="3" t="str">
+      <c r="C210" t="str">
         <f t="shared" si="3"/>
         <v>Consumo Cíclico_Construção Civil_Incorporações</v>
       </c>
@@ -7348,14 +7347,14 @@
         <v>80</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>438</v>
       </c>
-      <c r="B211" s="3" t="s">
+      <c r="B211" t="s">
         <v>437</v>
       </c>
-      <c r="C211" s="3" t="str">
+      <c r="C211" t="str">
         <f t="shared" si="3"/>
         <v>Consumo Cíclico_Construção Civil_Incorporações</v>
       </c>
@@ -7369,14 +7368,14 @@
         <v>80</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>440</v>
       </c>
-      <c r="B212" s="3" t="s">
+      <c r="B212" t="s">
         <v>439</v>
       </c>
-      <c r="C212" s="3" t="str">
+      <c r="C212" t="str">
         <f t="shared" si="3"/>
         <v>Consumo não Cíclico_Alimentos Processados_Alimentos Diversos</v>
       </c>
@@ -7390,14 +7389,14 @@
         <v>181</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>442</v>
       </c>
-      <c r="B213" s="3" t="s">
+      <c r="B213" t="s">
         <v>441</v>
       </c>
-      <c r="C213" s="3" t="str">
+      <c r="C213" t="str">
         <f t="shared" si="3"/>
         <v>Bens Industriais_Transporte_Transporte Rodoviário</v>
       </c>
@@ -7411,14 +7410,14 @@
         <v>443</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>445</v>
       </c>
-      <c r="B214" s="3" t="s">
+      <c r="B214" t="s">
         <v>444</v>
       </c>
-      <c r="C214" s="3" t="str">
+      <c r="C214" t="str">
         <f t="shared" si="3"/>
         <v>Bens Industriais_Máquinas e Equipamentos_Máq. e Equip. Industriais</v>
       </c>
@@ -7432,14 +7431,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>447</v>
       </c>
-      <c r="B215" s="3" t="s">
+      <c r="B215" t="s">
         <v>446</v>
       </c>
-      <c r="C215" s="3" t="str">
+      <c r="C215" t="str">
         <f t="shared" si="3"/>
         <v>Materiais Básicos_Madeira e Papel_Papel e Celulose</v>
       </c>
@@ -7453,14 +7452,14 @@
         <v>448</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>447</v>
       </c>
-      <c r="B216" s="3" t="s">
+      <c r="B216" t="s">
         <v>449</v>
       </c>
-      <c r="C216" s="3" t="str">
+      <c r="C216" t="str">
         <f t="shared" si="3"/>
         <v>Materiais Básicos_Madeira e Papel_Papel e Celulose</v>
       </c>
@@ -7474,14 +7473,14 @@
         <v>448</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>447</v>
       </c>
-      <c r="B217" s="3" t="s">
+      <c r="B217" t="s">
         <v>450</v>
       </c>
-      <c r="C217" s="3" t="str">
+      <c r="C217" t="str">
         <f t="shared" si="3"/>
         <v>Materiais Básicos_Madeira e Papel_Papel e Celulose</v>
       </c>
@@ -7495,14 +7494,14 @@
         <v>448</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>808</v>
       </c>
-      <c r="B218" s="3" t="s">
+      <c r="B218" t="s">
         <v>451</v>
       </c>
-      <c r="C218" s="3" t="str">
+      <c r="C218" t="str">
         <f t="shared" si="3"/>
         <v>Saúde_Serv.Méd.Hospit..Análises e Diagnósticos_Serv.Méd.Hospit..Análises e Diagnósticos</v>
       </c>
@@ -7516,14 +7515,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>453</v>
       </c>
-      <c r="B219" s="3" t="s">
+      <c r="B219" t="s">
         <v>452</v>
       </c>
-      <c r="C219" s="3" t="str">
+      <c r="C219" t="str">
         <f t="shared" si="3"/>
         <v>Consumo não Cíclico_Agropecuária_Agricultura</v>
       </c>
@@ -7537,14 +7536,14 @@
         <v>32</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>455</v>
       </c>
-      <c r="B220" s="3" t="s">
+      <c r="B220" t="s">
         <v>454</v>
       </c>
-      <c r="C220" s="3" t="str">
+      <c r="C220" t="str">
         <f t="shared" si="3"/>
         <v>Consumo Cíclico_Construção Civil_Incorporações</v>
       </c>
@@ -7558,14 +7557,14 @@
         <v>80</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>457</v>
       </c>
-      <c r="B221" s="3" t="s">
+      <c r="B221" t="s">
         <v>456</v>
       </c>
-      <c r="C221" s="3" t="str">
+      <c r="C221" t="str">
         <f t="shared" si="3"/>
         <v>Consumo Cíclico_Automóveis e Motocicletas_Automóveis e Motocicletas</v>
       </c>
@@ -7583,10 +7582,10 @@
       <c r="A222" t="s">
         <v>460</v>
       </c>
-      <c r="B222" s="3" t="s">
+      <c r="B222" t="s">
         <v>459</v>
       </c>
-      <c r="C222" s="3" t="str">
+      <c r="C222" t="str">
         <f t="shared" si="3"/>
         <v>Utilidade Pública_Energia Elétrica_Energia Elétrica</v>
       </c>
@@ -7604,10 +7603,10 @@
       <c r="A223" t="s">
         <v>462</v>
       </c>
-      <c r="B223" s="3" t="s">
+      <c r="B223" t="s">
         <v>461</v>
       </c>
-      <c r="C223" s="3" t="str">
+      <c r="C223" t="str">
         <f t="shared" si="3"/>
         <v>Utilidade Pública_Energia Elétrica_Energia Elétrica</v>
       </c>
@@ -7621,14 +7620,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>464</v>
       </c>
-      <c r="B224" s="3" t="s">
+      <c r="B224" t="s">
         <v>463</v>
       </c>
-      <c r="C224" s="3" t="str">
+      <c r="C224" t="str">
         <f t="shared" si="3"/>
         <v>Consumo Cíclico_Comércio_Produtos Diversos</v>
       </c>
@@ -7642,14 +7641,14 @@
         <v>60</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>466</v>
       </c>
-      <c r="B225" s="3" t="s">
+      <c r="B225" t="s">
         <v>465</v>
       </c>
-      <c r="C225" s="3" t="str">
+      <c r="C225" t="str">
         <f t="shared" si="3"/>
         <v>Financeiro_Exploração de Imóveis_Exploração de Imóveis</v>
       </c>
@@ -7663,14 +7662,14 @@
         <v>380</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>468</v>
       </c>
-      <c r="B226" s="3" t="s">
+      <c r="B226" t="s">
         <v>467</v>
       </c>
-      <c r="C226" s="3" t="str">
+      <c r="C226" t="str">
         <f t="shared" si="3"/>
         <v>Bens Industriais_Transporte_Transporte Hidroviário</v>
       </c>
@@ -7684,14 +7683,14 @@
         <v>394</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>470</v>
       </c>
-      <c r="B227" s="3" t="s">
+      <c r="B227" t="s">
         <v>469</v>
       </c>
-      <c r="C227" s="3" t="str">
+      <c r="C227" t="str">
         <f t="shared" si="3"/>
         <v>Financeiro_Exploração de Imóveis_Intermediação Imobiliária</v>
       </c>
@@ -7705,14 +7704,14 @@
         <v>471</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>473</v>
       </c>
-      <c r="B228" s="3" t="s">
+      <c r="B228" t="s">
         <v>472</v>
       </c>
-      <c r="C228" s="3" t="str">
+      <c r="C228" t="str">
         <f t="shared" si="3"/>
         <v>Consumo Cíclico_Comércio_Tecidos. Vestuário e Calçados</v>
       </c>
@@ -7726,14 +7725,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>475</v>
       </c>
-      <c r="B229" s="3" t="s">
+      <c r="B229" t="s">
         <v>474</v>
       </c>
-      <c r="C229" s="3" t="str">
+      <c r="C229" t="str">
         <f t="shared" si="3"/>
         <v>Petróleo. Gás e Biocombustíveis_Petróleo. Gás e Biocombustíveis_Equipamentos e Serviços</v>
       </c>
@@ -7747,14 +7746,14 @@
         <v>476</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>478</v>
       </c>
-      <c r="B230" s="3" t="s">
+      <c r="B230" t="s">
         <v>477</v>
       </c>
-      <c r="C230" s="3" t="str">
+      <c r="C230" t="str">
         <f t="shared" si="3"/>
         <v>Bens Industriais_Transporte_Transporte Hidroviário</v>
       </c>
@@ -7768,14 +7767,14 @@
         <v>394</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>480</v>
       </c>
-      <c r="B231" s="3" t="s">
+      <c r="B231" t="s">
         <v>479</v>
       </c>
-      <c r="C231" s="3" t="str">
+      <c r="C231" t="str">
         <f t="shared" si="3"/>
         <v>Tecnologia da Informação_Programas e Serviços_Programas e Serviços</v>
       </c>
@@ -7789,14 +7788,14 @@
         <v>138</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>482</v>
       </c>
-      <c r="B232" s="3" t="s">
+      <c r="B232" t="s">
         <v>481</v>
       </c>
-      <c r="C232" s="3" t="str">
+      <c r="C232" t="str">
         <f t="shared" si="3"/>
         <v>Tecnologia da Informação_Programas e Serviços_Programas e Serviços</v>
       </c>
@@ -7810,14 +7809,14 @@
         <v>138</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>484</v>
       </c>
-      <c r="B233" s="3" t="s">
+      <c r="B233" t="s">
         <v>483</v>
       </c>
-      <c r="C233" s="3" t="str">
+      <c r="C233" t="str">
         <f t="shared" si="3"/>
         <v>Saúde_Serv.Méd.Hospit..Análises e Diagnósticos_Serv.Méd.Hospit..Análises e Diagnósticos</v>
       </c>
@@ -7831,14 +7830,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>486</v>
       </c>
-      <c r="B234" s="3" t="s">
+      <c r="B234" t="s">
         <v>485</v>
       </c>
-      <c r="C234" s="3" t="str">
+      <c r="C234" t="str">
         <f t="shared" si="3"/>
         <v>Consumo Cíclico_Utilidades Domésticas_Móveis</v>
       </c>
@@ -7852,14 +7851,14 @@
         <v>487</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>489</v>
       </c>
-      <c r="B235" s="3" t="s">
+      <c r="B235" t="s">
         <v>488</v>
       </c>
-      <c r="C235" s="3" t="str">
+      <c r="C235" t="str">
         <f t="shared" si="3"/>
         <v>Consumo não Cíclico_Alimentos Processados_Alimentos Diversos</v>
       </c>
@@ -7873,14 +7872,14 @@
         <v>181</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>491</v>
       </c>
-      <c r="B236" s="3" t="s">
+      <c r="B236" t="s">
         <v>490</v>
       </c>
-      <c r="C236" s="3" t="str">
+      <c r="C236" t="str">
         <f t="shared" si="3"/>
         <v>Consumo Cíclico_Construção Civil_Incorporações</v>
       </c>
@@ -7894,14 +7893,14 @@
         <v>80</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>493</v>
       </c>
-      <c r="B237" s="3" t="s">
+      <c r="B237" t="s">
         <v>492</v>
       </c>
-      <c r="C237" s="3" t="str">
+      <c r="C237" t="str">
         <f t="shared" si="3"/>
         <v>Consumo Cíclico_Hoteis e Restaurantes_Restaurante e Similares</v>
       </c>
@@ -7919,10 +7918,10 @@
       <c r="A238" t="s">
         <v>827</v>
       </c>
-      <c r="B238" s="3" t="s">
+      <c r="B238" t="s">
         <v>495</v>
       </c>
-      <c r="C238" s="3" t="str">
+      <c r="C238" t="str">
         <f t="shared" si="3"/>
         <v>Utilidade Pública_Energia Elétrica_Energia Elétrica</v>
       </c>
@@ -7936,14 +7935,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>497</v>
       </c>
-      <c r="B239" s="3" t="s">
+      <c r="B239" t="s">
         <v>496</v>
       </c>
-      <c r="C239" s="3" t="str">
+      <c r="C239" t="str">
         <f t="shared" si="3"/>
         <v>Consumo Cíclico_Construção Civil_Incorporações</v>
       </c>
@@ -7957,14 +7956,14 @@
         <v>80</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>499</v>
       </c>
-      <c r="B240" s="3" t="s">
+      <c r="B240" t="s">
         <v>498</v>
       </c>
-      <c r="C240" s="3" t="str">
+      <c r="C240" t="str">
         <f t="shared" si="3"/>
         <v>Financeiro_Intermediários Financeiros_Soc. Crédito e Financiamento</v>
       </c>
@@ -7978,14 +7977,14 @@
         <v>500</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>502</v>
       </c>
-      <c r="B241" s="3" t="s">
+      <c r="B241" t="s">
         <v>501</v>
       </c>
-      <c r="C241" s="3" t="str">
+      <c r="C241" t="str">
         <f t="shared" si="3"/>
         <v>Materiais Básicos_Siderurgia e Metalurgia_Artefatos de Ferro e Aço</v>
       </c>
@@ -7999,14 +7998,14 @@
         <v>503</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>505</v>
       </c>
-      <c r="B242" s="3" t="s">
+      <c r="B242" t="s">
         <v>504</v>
       </c>
-      <c r="C242" s="3" t="str">
+      <c r="C242" t="str">
         <f t="shared" si="3"/>
         <v>Consumo Cíclico_Comércio_Eletrodomésticos</v>
       </c>
@@ -8020,14 +8019,14 @@
         <v>39</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>507</v>
       </c>
-      <c r="B243" s="3" t="s">
+      <c r="B243" t="s">
         <v>506</v>
       </c>
-      <c r="C243" s="3" t="str">
+      <c r="C243" t="str">
         <f t="shared" si="3"/>
         <v>Bens Industriais_Máquinas e Equipamentos_Máq. e Equip. Industriais</v>
       </c>
@@ -8041,14 +8040,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>509</v>
       </c>
-      <c r="B244" s="3" t="s">
+      <c r="B244" t="s">
         <v>508</v>
       </c>
-      <c r="C244" s="3" t="str">
+      <c r="C244" t="str">
         <f t="shared" si="3"/>
         <v>Tecnologia da Informação_Computadores e Equipamentos_Computadores e Equipamentos</v>
       </c>
@@ -8062,14 +8061,14 @@
         <v>419</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>511</v>
       </c>
-      <c r="B245" s="3" t="s">
+      <c r="B245" t="s">
         <v>510</v>
       </c>
-      <c r="C245" s="3" t="str">
+      <c r="C245" t="str">
         <f t="shared" si="3"/>
         <v>Consumo Cíclico_Tecidos. Vestuário e Calçados_Acessórios</v>
       </c>
@@ -8083,14 +8082,14 @@
         <v>512</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>514</v>
       </c>
-      <c r="B246" s="3" t="s">
+      <c r="B246" t="s">
         <v>513</v>
       </c>
-      <c r="C246" s="3" t="str">
+      <c r="C246" t="str">
         <f t="shared" si="3"/>
         <v>Consumo não Cíclico_Alimentos Processados_Carnes e Derivados</v>
       </c>
@@ -8104,14 +8103,14 @@
         <v>113</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>516</v>
       </c>
-      <c r="B247" s="3" t="s">
+      <c r="B247" t="s">
         <v>515</v>
       </c>
-      <c r="C247" s="3" t="str">
+      <c r="C247" t="str">
         <f t="shared" si="3"/>
         <v>Financeiro_Holdings Diversificadas_Holdings Diversificadas</v>
       </c>
@@ -8125,14 +8124,14 @@
         <v>425</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>828</v>
       </c>
-      <c r="B248" s="3" t="s">
+      <c r="B248" t="s">
         <v>517</v>
       </c>
-      <c r="C248" s="3" t="str">
+      <c r="C248" t="str">
         <f t="shared" si="3"/>
         <v>Financeiro_Intermediários Financeiros_Bancos</v>
       </c>
@@ -8146,14 +8145,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>519</v>
       </c>
-      <c r="B249" s="3" t="s">
+      <c r="B249" t="s">
         <v>518</v>
       </c>
-      <c r="C249" s="3" t="str">
+      <c r="C249" t="str">
         <f t="shared" si="3"/>
         <v>Consumo Cíclico_Diversos_Aluguel de carros</v>
       </c>
@@ -8167,14 +8166,14 @@
         <v>520</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>522</v>
       </c>
-      <c r="B250" s="3" t="s">
+      <c r="B250" t="s">
         <v>521</v>
       </c>
-      <c r="C250" s="3" t="str">
+      <c r="C250" t="str">
         <f t="shared" si="3"/>
         <v>Consumo não Cíclico_Alimentos Processados_Carnes e Derivados</v>
       </c>
@@ -8188,14 +8187,14 @@
         <v>113</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>524</v>
       </c>
-      <c r="B251" s="3" t="s">
+      <c r="B251" t="s">
         <v>523</v>
       </c>
-      <c r="C251" s="3" t="str">
+      <c r="C251" t="str">
         <f t="shared" si="3"/>
         <v>Consumo Cíclico_Construção Civil_Incorporações</v>
       </c>
@@ -8209,14 +8208,14 @@
         <v>80</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>526</v>
       </c>
-      <c r="B252" s="3" t="s">
+      <c r="B252" t="s">
         <v>525</v>
       </c>
-      <c r="C252" s="3" t="str">
+      <c r="C252" t="str">
         <f t="shared" si="3"/>
         <v>Materiais Básicos_Madeira e Papel_Papel e Celulose</v>
       </c>
@@ -8230,14 +8229,14 @@
         <v>448</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>528</v>
       </c>
-      <c r="B253" s="3" t="s">
+      <c r="B253" t="s">
         <v>527</v>
       </c>
-      <c r="C253" s="3" t="str">
+      <c r="C253" t="str">
         <f t="shared" si="3"/>
         <v>Consumo Cíclico_Construção Civil_Incorporações</v>
       </c>
@@ -8251,14 +8250,14 @@
         <v>80</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>530</v>
       </c>
-      <c r="B254" s="3" t="s">
+      <c r="B254" t="s">
         <v>529</v>
       </c>
-      <c r="C254" s="3" t="str">
+      <c r="C254" t="str">
         <f t="shared" si="3"/>
         <v>Bens Industriais_Máquinas e Equipamentos_Máq. e Equip. Construção e Agrícolas</v>
       </c>
@@ -8272,14 +8271,14 @@
         <v>531</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>533</v>
       </c>
-      <c r="B255" s="3" t="s">
+      <c r="B255" t="s">
         <v>532</v>
       </c>
-      <c r="C255" s="3" t="str">
+      <c r="C255" t="str">
         <f t="shared" si="3"/>
         <v>Financeiro_Exploração de Imóveis_Exploração de Imóveis</v>
       </c>
@@ -8293,14 +8292,14 @@
         <v>380</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>535</v>
       </c>
-      <c r="B256" s="3" t="s">
+      <c r="B256" t="s">
         <v>534</v>
       </c>
-      <c r="C256" s="3" t="str">
+      <c r="C256" t="str">
         <f t="shared" si="3"/>
         <v>Bens Industriais_Material de Transporte_Material Rodoviário</v>
       </c>
@@ -8314,14 +8313,14 @@
         <v>357</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>537</v>
       </c>
-      <c r="B257" s="3" t="s">
+      <c r="B257" t="s">
         <v>536</v>
       </c>
-      <c r="C257" s="3" t="str">
+      <c r="C257" t="str">
         <f t="shared" si="3"/>
         <v>Consumo Cíclico_Automóveis e Motocicletas_Automóveis e Motocicletas</v>
       </c>
@@ -8339,10 +8338,10 @@
       <c r="A258" t="s">
         <v>539</v>
       </c>
-      <c r="B258" s="3" t="s">
+      <c r="B258" t="s">
         <v>538</v>
       </c>
-      <c r="C258" s="3" t="str">
+      <c r="C258" t="str">
         <f t="shared" si="3"/>
         <v>Utilidade Pública_Energia Elétrica_Energia Elétrica</v>
       </c>
@@ -8356,14 +8355,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>541</v>
       </c>
-      <c r="B259" s="3" t="s">
+      <c r="B259" t="s">
         <v>540</v>
       </c>
-      <c r="C259" s="3" t="str">
+      <c r="C259" t="str">
         <f t="shared" ref="C259:C322" si="4">D259 &amp; "_" &amp; E259 &amp; "_" &amp; F259</f>
         <v>Financeiro_Exploração de Imóveis_Intermediação Imobiliária</v>
       </c>
@@ -8377,14 +8376,14 @@
         <v>471</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>543</v>
       </c>
-      <c r="B260" s="3" t="s">
+      <c r="B260" t="s">
         <v>542</v>
       </c>
-      <c r="C260" s="3" t="str">
+      <c r="C260" t="str">
         <f t="shared" si="4"/>
         <v>Tecnologia da Informação_Programas e Serviços_Programas e Serviços</v>
       </c>
@@ -8398,14 +8397,14 @@
         <v>138</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>829</v>
       </c>
-      <c r="B261" s="3" t="s">
+      <c r="B261" t="s">
         <v>544</v>
       </c>
-      <c r="C261" s="3" t="str">
+      <c r="C261" t="str">
         <f t="shared" si="4"/>
         <v>Tecnologia da Informação_Programas e Serviços_Programas e Serviços</v>
       </c>
@@ -8419,14 +8418,14 @@
         <v>138</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>546</v>
       </c>
-      <c r="B262" s="3" t="s">
+      <c r="B262" t="s">
         <v>545</v>
       </c>
-      <c r="C262" s="3" t="str">
+      <c r="C262" t="str">
         <f t="shared" si="4"/>
         <v>Bens Industriais_Máquinas e Equipamentos_Máq. e Equip. Industriais</v>
       </c>
@@ -8440,14 +8439,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>548</v>
       </c>
-      <c r="B263" s="3" t="s">
+      <c r="B263" t="s">
         <v>547</v>
       </c>
-      <c r="C263" s="3" t="str">
+      <c r="C263" t="str">
         <f t="shared" si="4"/>
         <v>Consumo não Cíclico_Produtos de Uso Pessoal e de Limpeza_Produtos de Uso Pessoal</v>
       </c>
@@ -8461,14 +8460,14 @@
         <v>549</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>551</v>
       </c>
-      <c r="B264" s="3" t="s">
+      <c r="B264" t="s">
         <v>550</v>
       </c>
-      <c r="C264" s="3" t="str">
+      <c r="C264" t="str">
         <f t="shared" si="4"/>
         <v>Materiais Básicos_Químicos_Fertilizantes e Defensivos</v>
       </c>
@@ -8482,14 +8481,14 @@
         <v>350</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>553</v>
       </c>
-      <c r="B265" s="3" t="s">
+      <c r="B265" t="s">
         <v>552</v>
       </c>
-      <c r="C265" s="3" t="str">
+      <c r="C265" t="str">
         <f t="shared" si="4"/>
         <v>Saúde_Serv.Méd.Hospit..Análises e Diagnósticos_Serv.Méd.Hospit..Análises e Diagnósticos</v>
       </c>
@@ -8503,14 +8502,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>555</v>
       </c>
-      <c r="B266" s="3" t="s">
+      <c r="B266" t="s">
         <v>554</v>
       </c>
-      <c r="C266" s="3" t="str">
+      <c r="C266" t="str">
         <f t="shared" si="4"/>
         <v>Saúde_Medicamentos e Outros Produtos_Medicamentos e Outros Produtos</v>
       </c>
@@ -8524,14 +8523,14 @@
         <v>121</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>557</v>
       </c>
-      <c r="B267" s="3" t="s">
+      <c r="B267" t="s">
         <v>556</v>
       </c>
-      <c r="C267" s="3" t="str">
+      <c r="C267" t="str">
         <f t="shared" si="4"/>
         <v>Comunicações_Telecomunicações_Telecomunicações</v>
       </c>
@@ -8545,14 +8544,14 @@
         <v>272</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>557</v>
       </c>
-      <c r="B268" s="3" t="s">
+      <c r="B268" t="s">
         <v>558</v>
       </c>
-      <c r="C268" s="3" t="str">
+      <c r="C268" t="str">
         <f t="shared" si="4"/>
         <v>Comunicações_Telecomunicações_Telecomunicações</v>
       </c>
@@ -8566,14 +8565,14 @@
         <v>272</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>560</v>
       </c>
-      <c r="B269" s="3" t="s">
+      <c r="B269" t="s">
         <v>559</v>
       </c>
-      <c r="C269" s="3" t="str">
+      <c r="C269" t="str">
         <f t="shared" si="4"/>
         <v>Saúde_Serv.Méd.Hospit..Análises e Diagnósticos_Serv.Méd.Hospit..Análises e Diagnósticos</v>
       </c>
@@ -8587,14 +8586,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>562</v>
       </c>
-      <c r="B270" s="3" t="s">
+      <c r="B270" t="s">
         <v>561</v>
       </c>
-      <c r="C270" s="3" t="str">
+      <c r="C270" t="str">
         <f t="shared" si="4"/>
         <v>Petróleo. Gás e Biocombustíveis_Petróleo. Gás e Biocombustíveis_Equipamentos e Serviços</v>
       </c>
@@ -8608,14 +8607,14 @@
         <v>476</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>564</v>
       </c>
-      <c r="B271" s="3" t="s">
+      <c r="B271" t="s">
         <v>563</v>
       </c>
-      <c r="C271" s="3" t="str">
+      <c r="C271" t="str">
         <f t="shared" si="4"/>
         <v>Utilidade Pública_Água e Saneamento_Água e Saneamento</v>
       </c>
@@ -8629,14 +8628,14 @@
         <v>58</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>566</v>
       </c>
-      <c r="B272" s="3" t="s">
+      <c r="B272" t="s">
         <v>565</v>
       </c>
-      <c r="C272" s="3" t="str">
+      <c r="C272" t="str">
         <f t="shared" si="4"/>
         <v>Petróleo. Gás e Biocombustíveis_Petróleo. Gás e Biocombustíveis_Equipamentos e Serviços</v>
       </c>
@@ -8650,14 +8649,14 @@
         <v>476</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>568</v>
       </c>
-      <c r="B273" s="3" t="s">
+      <c r="B273" t="s">
         <v>567</v>
       </c>
-      <c r="C273" s="3" t="str">
+      <c r="C273" t="str">
         <f t="shared" si="4"/>
         <v>Consumo não Cíclico_Comércio e Distribuição_Alimentos</v>
       </c>
@@ -8671,14 +8670,14 @@
         <v>72</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>570</v>
       </c>
-      <c r="B274" s="3" t="s">
+      <c r="B274" t="s">
         <v>569</v>
       </c>
-      <c r="C274" s="3" t="str">
+      <c r="C274" t="str">
         <f t="shared" si="4"/>
         <v>Consumo Cíclico_Construção Civil_Incorporações</v>
       </c>
@@ -8692,14 +8691,14 @@
         <v>80</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>572</v>
       </c>
-      <c r="B275" s="3" t="s">
+      <c r="B275" t="s">
         <v>571</v>
       </c>
-      <c r="C275" s="3" t="str">
+      <c r="C275" t="str">
         <f t="shared" si="4"/>
         <v>Tecnologia da Informação_Programas e Serviços_Programas e Serviços</v>
       </c>
@@ -8713,14 +8712,14 @@
         <v>138</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>574</v>
       </c>
-      <c r="B276" s="3" t="s">
+      <c r="B276" t="s">
         <v>573</v>
       </c>
-      <c r="C276" s="3" t="str">
+      <c r="C276" t="str">
         <f t="shared" si="4"/>
         <v>Financeiro_Exploração de Imóveis_Exploração de Imóveis</v>
       </c>
@@ -8734,14 +8733,14 @@
         <v>380</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>574</v>
       </c>
-      <c r="B277" s="3" t="s">
+      <c r="B277" t="s">
         <v>575</v>
       </c>
-      <c r="C277" s="3" t="str">
+      <c r="C277" t="str">
         <f t="shared" si="4"/>
         <v>Financeiro_Exploração de Imóveis_Exploração de Imóveis</v>
       </c>
@@ -8755,14 +8754,14 @@
         <v>380</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>577</v>
       </c>
-      <c r="B278" s="3" t="s">
+      <c r="B278" t="s">
         <v>576</v>
       </c>
-      <c r="C278" s="3" t="str">
+      <c r="C278" t="str">
         <f t="shared" si="4"/>
         <v>Petróleo. Gás e Biocombustíveis_Petróleo. Gás e Biocombustíveis_Exploração. Refino e Distribuição</v>
       </c>
@@ -8776,14 +8775,14 @@
         <v>239</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>577</v>
       </c>
-      <c r="B279" s="3" t="s">
+      <c r="B279" t="s">
         <v>578</v>
       </c>
-      <c r="C279" s="3" t="str">
+      <c r="C279" t="str">
         <f t="shared" si="4"/>
         <v>Petróleo. Gás e Biocombustíveis_Petróleo. Gás e Biocombustíveis_Exploração. Refino e Distribuição</v>
       </c>
@@ -8797,14 +8796,14 @@
         <v>239</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>580</v>
       </c>
-      <c r="B280" s="3" t="s">
+      <c r="B280" t="s">
         <v>579</v>
       </c>
-      <c r="C280" s="3" t="str">
+      <c r="C280" t="str">
         <f t="shared" si="4"/>
         <v>Consumo Cíclico_Comércio_Produtos Diversos</v>
       </c>
@@ -8818,14 +8817,14 @@
         <v>60</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>582</v>
       </c>
-      <c r="B281" s="3" t="s">
+      <c r="B281" t="s">
         <v>581</v>
       </c>
-      <c r="C281" s="3" t="str">
+      <c r="C281" t="str">
         <f t="shared" si="4"/>
         <v>Saúde_Comércio e Distribuição_Medicamentos e Outros Produtos</v>
       </c>
@@ -8839,14 +8838,14 @@
         <v>121</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>584</v>
       </c>
-      <c r="B282" s="3" t="s">
+      <c r="B282" t="s">
         <v>583</v>
       </c>
-      <c r="C282" s="3" t="str">
+      <c r="C282" t="str">
         <f t="shared" si="4"/>
         <v>Saúde_Comércio e Distribuição_Medicamentos e Outros Produtos</v>
       </c>
@@ -8860,14 +8859,14 @@
         <v>121</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>586</v>
       </c>
-      <c r="B283" s="3" t="s">
+      <c r="B283" t="s">
         <v>585</v>
       </c>
-      <c r="C283" s="3" t="str">
+      <c r="C283" t="str">
         <f t="shared" si="4"/>
         <v>Financeiro_Intermediários Financeiros_Bancos</v>
       </c>
@@ -8881,14 +8880,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>588</v>
       </c>
-      <c r="B284" s="3" t="s">
+      <c r="B284" t="s">
         <v>587</v>
       </c>
-      <c r="C284" s="3" t="str">
+      <c r="C284" t="str">
         <f t="shared" si="4"/>
         <v>Consumo Cíclico_Automóveis e Motocicletas_Automóveis e Motocicletas</v>
       </c>
@@ -8902,14 +8901,14 @@
         <v>458</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>590</v>
       </c>
-      <c r="B285" s="3" t="s">
+      <c r="B285" t="s">
         <v>589</v>
       </c>
-      <c r="C285" s="3" t="str">
+      <c r="C285" t="str">
         <f t="shared" si="4"/>
         <v>Consumo Cíclico_Construção Civil_Incorporações</v>
       </c>
@@ -8923,14 +8922,14 @@
         <v>80</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>592</v>
       </c>
-      <c r="B286" s="3" t="s">
+      <c r="B286" t="s">
         <v>591</v>
       </c>
-      <c r="C286" s="3" t="str">
+      <c r="C286" t="str">
         <f t="shared" si="4"/>
         <v>Materiais Básicos_Siderurgia e Metalurgia_Artefatos de Cobre</v>
       </c>
@@ -8944,14 +8943,14 @@
         <v>593</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>595</v>
       </c>
-      <c r="B287" s="3" t="s">
+      <c r="B287" t="s">
         <v>594</v>
       </c>
-      <c r="C287" s="3" t="str">
+      <c r="C287" t="str">
         <f t="shared" si="4"/>
         <v>Saúde_Comércio e Distribuição_Medicamentos e Outros Produtos</v>
       </c>
@@ -8965,14 +8964,14 @@
         <v>121</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>597</v>
       </c>
-      <c r="B288" s="3" t="s">
+      <c r="B288" t="s">
         <v>596</v>
       </c>
-      <c r="C288" s="3" t="str">
+      <c r="C288" t="str">
         <f t="shared" si="4"/>
         <v>Bens Industriais_Material de Transporte_Material Rodoviário</v>
       </c>
@@ -8986,14 +8985,14 @@
         <v>357</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>597</v>
       </c>
-      <c r="B289" s="3" t="s">
+      <c r="B289" t="s">
         <v>598</v>
       </c>
-      <c r="C289" s="3" t="str">
+      <c r="C289" t="str">
         <f t="shared" si="4"/>
         <v>Bens Industriais_Material de Transporte_Material Rodoviário</v>
       </c>
@@ -9007,14 +9006,14 @@
         <v>357</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>600</v>
       </c>
-      <c r="B290" s="3" t="s">
+      <c r="B290" t="s">
         <v>599</v>
       </c>
-      <c r="C290" s="3" t="str">
+      <c r="C290" t="str">
         <f t="shared" si="4"/>
         <v>Bens Industriais_Transporte_Serviços de Apoio e Armazenagem</v>
       </c>
@@ -9028,14 +9027,14 @@
         <v>601</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>603</v>
       </c>
-      <c r="B291" s="3" t="s">
+      <c r="B291" t="s">
         <v>602</v>
       </c>
-      <c r="C291" s="3" t="str">
+      <c r="C291" t="str">
         <f t="shared" si="4"/>
         <v>Tecnologia da Informação_Computadores e Equipamentos_Computadores e Equipamentos</v>
       </c>
@@ -9049,14 +9048,14 @@
         <v>419</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>605</v>
       </c>
-      <c r="B292" s="3" t="s">
+      <c r="B292" t="s">
         <v>604</v>
       </c>
-      <c r="C292" s="3" t="str">
+      <c r="C292" t="str">
         <f t="shared" si="4"/>
         <v>Financeiro_Serviços Financeiros Diversos_Gestão de Recursos e Investimentos</v>
       </c>
@@ -9070,14 +9069,14 @@
         <v>606</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>608</v>
       </c>
-      <c r="B293" s="3" t="s">
+      <c r="B293" t="s">
         <v>607</v>
       </c>
-      <c r="C293" s="3" t="str">
+      <c r="C293" t="str">
         <f t="shared" si="4"/>
         <v>Petróleo. Gás e Biocombustíveis_Petróleo. Gás e Biocombustíveis_Exploração. Refino e Distribuição</v>
       </c>
@@ -9091,14 +9090,14 @@
         <v>239</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>610</v>
       </c>
-      <c r="B294" s="3" t="s">
+      <c r="B294" t="s">
         <v>609</v>
       </c>
-      <c r="C294" s="3" t="str">
+      <c r="C294" t="str">
         <f t="shared" si="4"/>
         <v>Bens Industriais_Serviços_Serviços Diversos</v>
       </c>
@@ -9112,14 +9111,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>612</v>
       </c>
-      <c r="B295" s="3" t="s">
+      <c r="B295" t="s">
         <v>611</v>
       </c>
-      <c r="C295" s="3" t="str">
+      <c r="C295" t="str">
         <f t="shared" si="4"/>
         <v>Financeiro_Previdência e Seguros_Seguradoras</v>
       </c>
@@ -9133,14 +9132,14 @@
         <v>106</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>614</v>
       </c>
-      <c r="B296" s="3" t="s">
+      <c r="B296" t="s">
         <v>613</v>
       </c>
-      <c r="C296" s="3" t="str">
+      <c r="C296" t="str">
         <f t="shared" si="4"/>
         <v>Bens Industriais_Construção e Engenharia_Produtos para Construção</v>
       </c>
@@ -9154,14 +9153,14 @@
         <v>338</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>616</v>
       </c>
-      <c r="B297" s="3" t="s">
+      <c r="B297" t="s">
         <v>615</v>
       </c>
-      <c r="C297" s="3" t="str">
+      <c r="C297" t="str">
         <f t="shared" si="4"/>
         <v>Consumo Cíclico_Tecidos. Vestuário e Calçados_Fios e Tecidos</v>
       </c>
@@ -9175,14 +9174,14 @@
         <v>197</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>616</v>
       </c>
-      <c r="B298" s="3" t="s">
+      <c r="B298" t="s">
         <v>617</v>
       </c>
-      <c r="C298" s="3" t="str">
+      <c r="C298" t="str">
         <f t="shared" si="4"/>
         <v>Consumo Cíclico_Tecidos. Vestuário e Calçados_Fios e Tecidos</v>
       </c>
@@ -9196,14 +9195,14 @@
         <v>197</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>619</v>
       </c>
-      <c r="B299" s="3" t="s">
+      <c r="B299" t="s">
         <v>618</v>
       </c>
-      <c r="C299" s="3" t="str">
+      <c r="C299" t="str">
         <f t="shared" si="4"/>
         <v>Saúde_Serv.Méd.Hospit..Análises e Diagnósticos_Serv.Méd.Hospit..Análises e Diagnósticos</v>
       </c>
@@ -9217,14 +9216,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>621</v>
       </c>
-      <c r="B300" s="3" t="s">
+      <c r="B300" t="s">
         <v>620</v>
       </c>
-      <c r="C300" s="3" t="str">
+      <c r="C300" t="str">
         <f t="shared" si="4"/>
         <v>Saúde_Comércio e Distribuição_Medicamentos e Outros Produtos</v>
       </c>
@@ -9238,14 +9237,14 @@
         <v>121</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>623</v>
       </c>
-      <c r="B301" s="3" t="s">
+      <c r="B301" t="s">
         <v>622</v>
       </c>
-      <c r="C301" s="3" t="str">
+      <c r="C301" t="str">
         <f t="shared" si="4"/>
         <v>Bens Industriais_Transporte_Transporte Ferroviário</v>
       </c>
@@ -9259,14 +9258,14 @@
         <v>624</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>626</v>
       </c>
-      <c r="B302" s="3" t="s">
+      <c r="B302" t="s">
         <v>625</v>
       </c>
-      <c r="C302" s="3" t="str">
+      <c r="C302" t="str">
         <f t="shared" si="4"/>
         <v>Petróleo. Gás e Biocombustíveis_Petróleo. Gás e Biocombustíveis_Exploração. Refino e Distribuição</v>
       </c>
@@ -9280,14 +9279,14 @@
         <v>239</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>628</v>
       </c>
-      <c r="B303" s="3" t="s">
+      <c r="B303" t="s">
         <v>627</v>
       </c>
-      <c r="C303" s="3" t="str">
+      <c r="C303" t="str">
         <f t="shared" si="4"/>
         <v>Materiais Básicos_Embalagens_Embalagens</v>
       </c>
@@ -9301,14 +9300,14 @@
         <v>629</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>631</v>
       </c>
-      <c r="B304" s="3" t="s">
+      <c r="B304" t="s">
         <v>630</v>
       </c>
-      <c r="C304" s="3" t="str">
+      <c r="C304" t="str">
         <f t="shared" si="4"/>
         <v>Bens Industriais_Material de Transporte_Material Rodoviário</v>
       </c>
@@ -9322,14 +9321,14 @@
         <v>357</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>631</v>
       </c>
-      <c r="B305" s="3" t="s">
+      <c r="B305" t="s">
         <v>632</v>
       </c>
-      <c r="C305" s="3" t="str">
+      <c r="C305" t="str">
         <f t="shared" si="4"/>
         <v>Bens Industriais_Material de Transporte_Material Rodoviário</v>
       </c>
@@ -9343,14 +9342,14 @@
         <v>357</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>634</v>
       </c>
-      <c r="B306" s="3" t="s">
+      <c r="B306" t="s">
         <v>633</v>
       </c>
-      <c r="C306" s="3" t="str">
+      <c r="C306" t="str">
         <f t="shared" si="4"/>
         <v>Bens Industriais_Material de Transporte_Material Rodoviário</v>
       </c>
@@ -9364,14 +9363,14 @@
         <v>357</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>634</v>
       </c>
-      <c r="B307" s="3" t="s">
+      <c r="B307" t="s">
         <v>635</v>
       </c>
-      <c r="C307" s="3" t="str">
+      <c r="C307" t="str">
         <f t="shared" si="4"/>
         <v>Bens Industriais_Material de Transporte_Material Rodoviário</v>
       </c>
@@ -9385,14 +9384,14 @@
         <v>357</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>637</v>
       </c>
-      <c r="B308" s="3" t="s">
+      <c r="B308" t="s">
         <v>636</v>
       </c>
-      <c r="C308" s="3" t="str">
+      <c r="C308" t="str">
         <f t="shared" si="4"/>
         <v>Consumo Cíclico_Construção Civil_Incorporações</v>
       </c>
@@ -9406,14 +9405,14 @@
         <v>80</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>639</v>
       </c>
-      <c r="B309" s="3" t="s">
+      <c r="B309" t="s">
         <v>638</v>
       </c>
-      <c r="C309" s="3" t="str">
+      <c r="C309" t="str">
         <f t="shared" si="4"/>
         <v>Saúde_Serv.Méd.Hospit..Análises e Diagnósticos_Serv.Méd.Hospit..Análises e Diagnósticos</v>
       </c>
@@ -9427,14 +9426,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>641</v>
       </c>
-      <c r="B310" s="3" t="s">
+      <c r="B310" t="s">
         <v>640</v>
       </c>
-      <c r="C310" s="3" t="str">
+      <c r="C310" t="str">
         <f t="shared" si="4"/>
         <v>Petróleo. Gás e Biocombustíveis_Petróleo. Gás e Biocombustíveis_Exploração. Refino e Distribuição</v>
       </c>
@@ -9452,10 +9451,10 @@
       <c r="A311" t="s">
         <v>643</v>
       </c>
-      <c r="B311" s="3" t="s">
+      <c r="B311" t="s">
         <v>642</v>
       </c>
-      <c r="C311" s="3" t="str">
+      <c r="C311" t="str">
         <f t="shared" si="4"/>
         <v>Utilidade Pública_Energia Elétrica_Energia Elétrica</v>
       </c>
@@ -9469,14 +9468,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>645</v>
       </c>
-      <c r="B312" s="3" t="s">
+      <c r="B312" t="s">
         <v>644</v>
       </c>
-      <c r="C312" s="3" t="str">
+      <c r="C312" t="str">
         <f t="shared" si="4"/>
         <v>Consumo Cíclico_Diversos_Aluguel de carros</v>
       </c>
@@ -9494,10 +9493,10 @@
       <c r="A313" t="s">
         <v>647</v>
       </c>
-      <c r="B313" s="3" t="s">
+      <c r="B313" t="s">
         <v>646</v>
       </c>
-      <c r="C313" s="3" t="str">
+      <c r="C313" t="str">
         <f t="shared" si="4"/>
         <v>Utilidade Pública_Energia Elétrica_Energia Elétrica</v>
       </c>
@@ -9515,10 +9514,10 @@
       <c r="A314" t="s">
         <v>647</v>
       </c>
-      <c r="B314" s="3" t="s">
+      <c r="B314" t="s">
         <v>648</v>
       </c>
-      <c r="C314" s="3" t="str">
+      <c r="C314" t="str">
         <f t="shared" si="4"/>
         <v>Utilidade Pública_Energia Elétrica_Energia Elétrica</v>
       </c>
@@ -9536,10 +9535,10 @@
       <c r="A315" t="s">
         <v>647</v>
       </c>
-      <c r="B315" s="3" t="s">
+      <c r="B315" t="s">
         <v>649</v>
       </c>
-      <c r="C315" s="3" t="str">
+      <c r="C315" t="str">
         <f t="shared" si="4"/>
         <v>Utilidade Pública_Energia Elétrica_Energia Elétrica</v>
       </c>
@@ -9553,14 +9552,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>651</v>
       </c>
-      <c r="B316" s="3" t="s">
+      <c r="B316" t="s">
         <v>650</v>
       </c>
-      <c r="C316" s="3" t="str">
+      <c r="C316" t="str">
         <f t="shared" si="4"/>
         <v>Bens Industriais_Máquinas e Equipamentos_Máq. e Equip. Industriais</v>
       </c>
@@ -9574,14 +9573,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>653</v>
       </c>
-      <c r="B317" s="3" t="s">
+      <c r="B317" t="s">
         <v>652</v>
       </c>
-      <c r="C317" s="3" t="str">
+      <c r="C317" t="str">
         <f t="shared" si="4"/>
         <v>Financeiro_Intermediários Financeiros_Bancos</v>
       </c>
@@ -9595,14 +9594,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>653</v>
       </c>
-      <c r="B318" s="3" t="s">
+      <c r="B318" t="s">
         <v>654</v>
       </c>
-      <c r="C318" s="3" t="str">
+      <c r="C318" t="str">
         <f t="shared" si="4"/>
         <v>Financeiro_Intermediários Financeiros_Bancos</v>
       </c>
@@ -9616,14 +9615,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>653</v>
       </c>
-      <c r="B319" s="3" t="s">
+      <c r="B319" t="s">
         <v>655</v>
       </c>
-      <c r="C319" s="3" t="str">
+      <c r="C319" t="str">
         <f t="shared" si="4"/>
         <v>Financeiro_Intermediários Financeiros_Bancos</v>
       </c>
@@ -9637,14 +9636,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>657</v>
       </c>
-      <c r="B320" s="3" t="s">
+      <c r="B320" t="s">
         <v>656</v>
       </c>
-      <c r="C320" s="3" t="str">
+      <c r="C320" t="str">
         <f t="shared" si="4"/>
         <v>Petróleo. Gás e Biocombustíveis_Petróleo. Gás e Biocombustíveis_Exploração. Refino e Distribuição</v>
       </c>
@@ -9658,14 +9657,14 @@
         <v>239</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>830</v>
       </c>
-      <c r="B321" s="3" t="s">
+      <c r="B321" t="s">
         <v>658</v>
       </c>
-      <c r="C321" s="3" t="str">
+      <c r="C321" t="str">
         <f t="shared" si="4"/>
         <v>Petróleo. Gás e Biocombustíveis_Petróleo. Gás e Biocombustíveis_Exploração. Refino e Distribuição</v>
       </c>
@@ -9679,14 +9678,14 @@
         <v>239</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>660</v>
       </c>
-      <c r="B322" s="3" t="s">
+      <c r="B322" t="s">
         <v>659</v>
       </c>
-      <c r="C322" s="3" t="str">
+      <c r="C322" t="str">
         <f t="shared" si="4"/>
         <v>Consumo Cíclico_Construção Civil_Incorporações</v>
       </c>
@@ -9700,14 +9699,14 @@
         <v>80</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>662</v>
       </c>
-      <c r="B323" s="3" t="s">
+      <c r="B323" t="s">
         <v>661</v>
       </c>
-      <c r="C323" s="3" t="str">
+      <c r="C323" t="str">
         <f t="shared" ref="C323:C386" si="5">D323 &amp; "_" &amp; E323 &amp; "_" &amp; F323</f>
         <v>Bens Industriais_Material de Transporte_Material Rodoviário</v>
       </c>
@@ -9721,14 +9720,14 @@
         <v>357</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>664</v>
       </c>
-      <c r="B324" s="3" t="s">
+      <c r="B324" t="s">
         <v>663</v>
       </c>
-      <c r="C324" s="3" t="str">
+      <c r="C324" t="str">
         <f t="shared" si="5"/>
         <v>Financeiro_Intermediários Financeiros_Bancos</v>
       </c>
@@ -9742,14 +9741,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>664</v>
       </c>
-      <c r="B325" s="3" t="s">
+      <c r="B325" t="s">
         <v>665</v>
       </c>
-      <c r="C325" s="3" t="str">
+      <c r="C325" t="str">
         <f t="shared" si="5"/>
         <v>Financeiro_Intermediários Financeiros_Bancos</v>
       </c>
@@ -9763,14 +9762,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>664</v>
       </c>
-      <c r="B326" s="3" t="s">
+      <c r="B326" t="s">
         <v>666</v>
       </c>
-      <c r="C326" s="3" t="str">
+      <c r="C326" t="str">
         <f t="shared" si="5"/>
         <v>Financeiro_Intermediários Financeiros_Bancos</v>
       </c>
@@ -9784,14 +9783,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>668</v>
       </c>
-      <c r="B327" s="3" t="s">
+      <c r="B327" t="s">
         <v>667</v>
       </c>
-      <c r="C327" s="3" t="str">
+      <c r="C327" t="str">
         <f t="shared" si="5"/>
         <v>Utilidade Pública_Água e Saneamento_Água e Saneamento</v>
       </c>
@@ -9805,14 +9804,14 @@
         <v>58</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>668</v>
       </c>
-      <c r="B328" s="3" t="s">
+      <c r="B328" t="s">
         <v>669</v>
       </c>
-      <c r="C328" s="3" t="str">
+      <c r="C328" t="str">
         <f t="shared" si="5"/>
         <v>Utilidade Pública_Água e Saneamento_Água e Saneamento</v>
       </c>
@@ -9826,14 +9825,14 @@
         <v>58</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>668</v>
       </c>
-      <c r="B329" s="3" t="s">
+      <c r="B329" t="s">
         <v>670</v>
       </c>
-      <c r="C329" s="3" t="str">
+      <c r="C329" t="str">
         <f t="shared" si="5"/>
         <v>Utilidade Pública_Água e Saneamento_Água e Saneamento</v>
       </c>
@@ -9847,14 +9846,14 @@
         <v>58</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>672</v>
       </c>
-      <c r="B330" s="3" t="s">
+      <c r="B330" t="s">
         <v>671</v>
       </c>
-      <c r="C330" s="3" t="str">
+      <c r="C330" t="str">
         <f t="shared" si="5"/>
         <v>Consumo Cíclico_Comércio_Produtos Diversos</v>
       </c>
@@ -9868,14 +9867,14 @@
         <v>60</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>674</v>
       </c>
-      <c r="B331" s="3" t="s">
+      <c r="B331" t="s">
         <v>673</v>
       </c>
-      <c r="C331" s="3" t="str">
+      <c r="C331" t="str">
         <f t="shared" si="5"/>
         <v>Utilidade Pública_Água e Saneamento_Água e Saneamento</v>
       </c>
@@ -9889,14 +9888,14 @@
         <v>58</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>676</v>
       </c>
-      <c r="B332" s="3" t="s">
+      <c r="B332" t="s">
         <v>675</v>
       </c>
-      <c r="C332" s="3" t="str">
+      <c r="C332" t="str">
         <f t="shared" si="5"/>
         <v>Financeiro_Exploração de Imóveis_Exploração de Imóveis</v>
       </c>
@@ -9910,14 +9909,14 @@
         <v>380</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>678</v>
       </c>
-      <c r="B333" s="3" t="s">
+      <c r="B333" t="s">
         <v>677</v>
       </c>
-      <c r="C333" s="3" t="str">
+      <c r="C333" t="str">
         <f t="shared" si="5"/>
         <v>Consumo Cíclico_Diversos_Serviços Educacionais</v>
       </c>
@@ -9931,14 +9930,14 @@
         <v>64</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>680</v>
       </c>
-      <c r="B334" s="3" t="s">
+      <c r="B334" t="s">
         <v>679</v>
       </c>
-      <c r="C334" s="3" t="str">
+      <c r="C334" t="str">
         <f t="shared" si="5"/>
         <v>Bens Industriais_Serviços_Serviços Diversos</v>
       </c>
@@ -9952,14 +9951,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>809</v>
       </c>
-      <c r="B335" s="3" t="s">
+      <c r="B335" t="s">
         <v>681</v>
       </c>
-      <c r="C335" s="3" t="str">
+      <c r="C335" t="str">
         <f t="shared" si="5"/>
         <v>Consumo Cíclico_Tecidos. Vestuário e Calçados_Fios e Tecidos</v>
       </c>
@@ -9973,14 +9972,14 @@
         <v>197</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>683</v>
       </c>
-      <c r="B336" s="3" t="s">
+      <c r="B336" t="s">
         <v>682</v>
       </c>
-      <c r="C336" s="3" t="str">
+      <c r="C336" t="str">
         <f t="shared" si="5"/>
         <v>Consumo Cíclico_Viagens e Lazer_Produção de Eventos e Shows</v>
       </c>
@@ -9994,14 +9993,14 @@
         <v>684</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>686</v>
       </c>
-      <c r="B337" s="3" t="s">
+      <c r="B337" t="s">
         <v>685</v>
       </c>
-      <c r="C337" s="3" t="str">
+      <c r="C337" t="str">
         <f t="shared" si="5"/>
         <v>Bens Industriais_Máquinas e Equipamentos_Motores . Compressores e Outros</v>
       </c>
@@ -10015,14 +10014,14 @@
         <v>687</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>689</v>
       </c>
-      <c r="B338" s="3" t="s">
+      <c r="B338" t="s">
         <v>688</v>
       </c>
-      <c r="C338" s="3" t="str">
+      <c r="C338" t="str">
         <f t="shared" si="5"/>
         <v>Financeiro_Holdings Diversificadas_Holdings Diversificadas</v>
       </c>
@@ -10036,14 +10035,14 @@
         <v>425</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>691</v>
       </c>
-      <c r="B339" s="3" t="s">
+      <c r="B339" t="s">
         <v>690</v>
       </c>
-      <c r="C339" s="3" t="str">
+      <c r="C339" t="str">
         <f t="shared" si="5"/>
         <v>Consumo não Cíclico_Agropecuária_Agricultura</v>
       </c>
@@ -10057,14 +10056,14 @@
         <v>32</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>831</v>
       </c>
-      <c r="B340" s="3" t="s">
+      <c r="B340" t="s">
         <v>692</v>
       </c>
-      <c r="C340" s="3" t="str">
+      <c r="C340" t="str">
         <f t="shared" si="5"/>
         <v>Consumo Cíclico_Comércio_Produtos Diversos</v>
       </c>
@@ -10078,14 +10077,14 @@
         <v>60</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>831</v>
       </c>
-      <c r="B341" s="3" t="s">
+      <c r="B341" t="s">
         <v>693</v>
       </c>
-      <c r="C341" s="3" t="str">
+      <c r="C341" t="str">
         <f t="shared" si="5"/>
         <v>Consumo Cíclico_Comércio_Produtos Diversos</v>
       </c>
@@ -10099,14 +10098,14 @@
         <v>60</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>695</v>
       </c>
-      <c r="B342" s="3" t="s">
+      <c r="B342" t="s">
         <v>694</v>
       </c>
-      <c r="C342" s="3" t="str">
+      <c r="C342" t="str">
         <f t="shared" si="5"/>
         <v>Consumo Cíclico_Viagens e Lazer_Atividades Esportivas</v>
       </c>
@@ -10120,14 +10119,14 @@
         <v>696</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>698</v>
       </c>
-      <c r="B343" s="3" t="s">
+      <c r="B343" t="s">
         <v>697</v>
       </c>
-      <c r="C343" s="3" t="str">
+      <c r="C343" t="str">
         <f t="shared" si="5"/>
         <v>Consumo não Cíclico_Alimentos Processados_Açucar e Alcool</v>
       </c>
@@ -10141,14 +10140,14 @@
         <v>432</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>700</v>
       </c>
-      <c r="B344" s="3" t="s">
+      <c r="B344" t="s">
         <v>699</v>
       </c>
-      <c r="C344" s="3" t="str">
+      <c r="C344" t="str">
         <f t="shared" si="5"/>
         <v>Materiais Básicos_Materiais Diversos_Materiais Diversos</v>
       </c>
@@ -10162,14 +10161,14 @@
         <v>701</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>700</v>
       </c>
-      <c r="B345" s="3" t="s">
+      <c r="B345" t="s">
         <v>702</v>
       </c>
-      <c r="C345" s="3" t="str">
+      <c r="C345" t="str">
         <f t="shared" si="5"/>
         <v>Materiais Básicos_Materiais Diversos_Materiais Diversos</v>
       </c>
@@ -10183,14 +10182,14 @@
         <v>701</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>704</v>
       </c>
-      <c r="B346" s="3" t="s">
+      <c r="B346" t="s">
         <v>703</v>
       </c>
-      <c r="C346" s="3" t="str">
+      <c r="C346" t="str">
         <f t="shared" si="5"/>
         <v>Consumo não Cíclico_Agropecuária_Agricultura</v>
       </c>
@@ -10204,14 +10203,14 @@
         <v>32</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>832</v>
       </c>
-      <c r="B347" s="3" t="s">
+      <c r="B347" t="s">
         <v>705</v>
       </c>
-      <c r="C347" s="3" t="str">
+      <c r="C347" t="str">
         <f t="shared" si="5"/>
         <v>Consumo Cíclico_Comércio_Tecidos. Vestuário e Calçados</v>
       </c>
@@ -10225,14 +10224,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>833</v>
       </c>
-      <c r="B348" s="3" t="s">
+      <c r="B348" t="s">
         <v>706</v>
       </c>
-      <c r="C348" s="3" t="str">
+      <c r="C348" t="str">
         <f t="shared" si="5"/>
         <v>Tecnologia da Informação_Programas e Serviços_Programas e Serviços</v>
       </c>
@@ -10246,14 +10245,14 @@
         <v>138</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>708</v>
       </c>
-      <c r="B349" s="3" t="s">
+      <c r="B349" t="s">
         <v>707</v>
       </c>
-      <c r="C349" s="3" t="str">
+      <c r="C349" t="str">
         <f t="shared" si="5"/>
         <v>Bens Industriais_Transporte_Serviços de Apoio e Armazenagem</v>
       </c>
@@ -10267,14 +10266,14 @@
         <v>601</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>710</v>
       </c>
-      <c r="B350" s="3" t="s">
+      <c r="B350" t="s">
         <v>709</v>
       </c>
-      <c r="C350" s="3" t="str">
+      <c r="C350" t="str">
         <f t="shared" si="5"/>
         <v>Materiais Básicos_Madeira e Papel_Papel e Celulose</v>
       </c>
@@ -10288,14 +10287,14 @@
         <v>448</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>712</v>
       </c>
-      <c r="B351" s="3" t="s">
+      <c r="B351" t="s">
         <v>711</v>
       </c>
-      <c r="C351" s="3" t="str">
+      <c r="C351" t="str">
         <f t="shared" si="5"/>
         <v>Financeiro_Exploração de Imóveis_Exploração de Imóveis</v>
       </c>
@@ -10313,10 +10312,10 @@
       <c r="A352" t="s">
         <v>714</v>
       </c>
-      <c r="B352" s="3" t="s">
+      <c r="B352" t="s">
         <v>713</v>
       </c>
-      <c r="C352" s="3" t="str">
+      <c r="C352" t="str">
         <f t="shared" si="5"/>
         <v>Utilidade Pública_Energia Elétrica_Energia Elétrica</v>
       </c>
@@ -10334,10 +10333,10 @@
       <c r="A353" t="s">
         <v>714</v>
       </c>
-      <c r="B353" s="3" t="s">
+      <c r="B353" t="s">
         <v>715</v>
       </c>
-      <c r="C353" s="3" t="str">
+      <c r="C353" t="str">
         <f t="shared" si="5"/>
         <v>Utilidade Pública_Energia Elétrica_Energia Elétrica</v>
       </c>
@@ -10355,10 +10354,10 @@
       <c r="A354" t="s">
         <v>714</v>
       </c>
-      <c r="B354" s="3" t="s">
+      <c r="B354" t="s">
         <v>716</v>
       </c>
-      <c r="C354" s="3" t="str">
+      <c r="C354" t="str">
         <f t="shared" si="5"/>
         <v>Utilidade Pública_Energia Elétrica_Energia Elétrica</v>
       </c>
@@ -10372,14 +10371,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>718</v>
       </c>
-      <c r="B355" s="3" t="s">
+      <c r="B355" t="s">
         <v>717</v>
       </c>
-      <c r="C355" s="3" t="str">
+      <c r="C355" t="str">
         <f t="shared" si="5"/>
         <v>Bens Industriais_Máquinas e Equipamentos_Armas e Munições</v>
       </c>
@@ -10393,14 +10392,14 @@
         <v>719</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>718</v>
       </c>
-      <c r="B356" s="3" t="s">
+      <c r="B356" t="s">
         <v>720</v>
       </c>
-      <c r="C356" s="3" t="str">
+      <c r="C356" t="str">
         <f t="shared" si="5"/>
         <v>Bens Industriais_Máquinas e Equipamentos_Armas e Munições</v>
       </c>
@@ -10414,14 +10413,14 @@
         <v>719</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>722</v>
       </c>
-      <c r="B357" s="3" t="s">
+      <c r="B357" t="s">
         <v>721</v>
       </c>
-      <c r="C357" s="3" t="str">
+      <c r="C357" t="str">
         <f t="shared" si="5"/>
         <v>Consumo Cíclico_Construção Civil_Incorporações</v>
       </c>
@@ -10435,14 +10434,14 @@
         <v>80</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>724</v>
       </c>
-      <c r="B358" s="3" t="s">
+      <c r="B358" t="s">
         <v>723</v>
       </c>
-      <c r="C358" s="3" t="str">
+      <c r="C358" t="str">
         <f t="shared" si="5"/>
         <v>Consumo Cíclico_Tecidos. Vestuário e Calçados_Acessórios</v>
       </c>
@@ -10456,14 +10455,14 @@
         <v>512</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>834</v>
       </c>
-      <c r="B359" s="3" t="s">
+      <c r="B359" t="s">
         <v>725</v>
       </c>
-      <c r="C359" s="3" t="str">
+      <c r="C359" t="str">
         <f t="shared" si="5"/>
         <v>Consumo Cíclico_Tecidos. Vestuário e Calçados_Fios e Tecidos</v>
       </c>
@@ -10477,14 +10476,14 @@
         <v>197</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>727</v>
       </c>
-      <c r="B360" s="3" t="s">
+      <c r="B360" t="s">
         <v>726</v>
       </c>
-      <c r="C360" s="3" t="str">
+      <c r="C360" t="str">
         <f t="shared" si="5"/>
         <v>Comunicações_Telecomunicações_Telecomunicações</v>
       </c>
@@ -10498,14 +10497,14 @@
         <v>272</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>727</v>
       </c>
-      <c r="B361" s="3" t="s">
+      <c r="B361" t="s">
         <v>728</v>
       </c>
-      <c r="C361" s="3" t="str">
+      <c r="C361" t="str">
         <f t="shared" si="5"/>
         <v>Comunicações_Telecomunicações_Telecomunicações</v>
       </c>
@@ -10519,14 +10518,14 @@
         <v>272</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>730</v>
       </c>
-      <c r="B362" s="3" t="s">
+      <c r="B362" t="s">
         <v>729</v>
       </c>
-      <c r="C362" s="3" t="str">
+      <c r="C362" t="str">
         <f t="shared" si="5"/>
         <v>Consumo Cíclico_Construção Civil_Incorporações</v>
       </c>
@@ -10540,14 +10539,14 @@
         <v>80</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>732</v>
       </c>
-      <c r="B363" s="3" t="s">
+      <c r="B363" t="s">
         <v>731</v>
       </c>
-      <c r="C363" s="3" t="str">
+      <c r="C363" t="str">
         <f t="shared" si="5"/>
         <v>Consumo Cíclico_Tecidos. Vestuário e Calçados_Vestuário</v>
       </c>
@@ -10561,14 +10560,14 @@
         <v>733</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>735</v>
       </c>
-      <c r="B364" s="3" t="s">
+      <c r="B364" t="s">
         <v>734</v>
       </c>
-      <c r="C364" s="3" t="str">
+      <c r="C364" t="str">
         <f t="shared" si="5"/>
         <v>Bens Industriais_Transporte_Transporte Rodoviário</v>
       </c>
@@ -10582,14 +10581,14 @@
         <v>443</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>737</v>
       </c>
-      <c r="B365" s="3" t="s">
+      <c r="B365" t="s">
         <v>736</v>
       </c>
-      <c r="C365" s="3" t="str">
+      <c r="C365" t="str">
         <f t="shared" si="5"/>
         <v>Comunicações_Telecomunicações_Telecomunicações</v>
       </c>
@@ -10603,14 +10602,14 @@
         <v>272</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>739</v>
       </c>
-      <c r="B366" s="3" t="s">
+      <c r="B366" t="s">
         <v>738</v>
       </c>
-      <c r="C366" s="3" t="str">
+      <c r="C366" t="str">
         <f t="shared" si="5"/>
         <v>Tecnologia da Informação_Programas e Serviços_Programas e Serviços</v>
       </c>
@@ -10624,14 +10623,14 @@
         <v>138</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>741</v>
       </c>
-      <c r="B367" s="3" t="s">
+      <c r="B367" t="s">
         <v>740</v>
       </c>
-      <c r="C367" s="3" t="str">
+      <c r="C367" t="str">
         <f t="shared" si="5"/>
         <v>Bens Industriais_Transporte_Exploração de Rodovias</v>
       </c>
@@ -10645,14 +10644,14 @@
         <v>293</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>743</v>
       </c>
-      <c r="B368" s="3" t="s">
+      <c r="B368" t="s">
         <v>742</v>
       </c>
-      <c r="C368" s="3" t="str">
+      <c r="C368" t="str">
         <f t="shared" si="5"/>
         <v>Tecnologia da Informação_Programas e Serviços_Programas e Serviços</v>
       </c>
@@ -10666,14 +10665,14 @@
         <v>138</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>745</v>
       </c>
-      <c r="B369" s="3" t="s">
+      <c r="B369" t="s">
         <v>744</v>
       </c>
-      <c r="C369" s="3" t="str">
+      <c r="C369" t="str">
         <f t="shared" si="5"/>
         <v>Consumo Cíclico_Construção Civil_Incorporações</v>
       </c>
@@ -10691,10 +10690,10 @@
       <c r="A370" t="s">
         <v>835</v>
       </c>
-      <c r="B370" s="3" t="s">
+      <c r="B370" t="s">
         <v>746</v>
       </c>
-      <c r="C370" s="3" t="str">
+      <c r="C370" t="str">
         <f t="shared" si="5"/>
         <v>Utilidade Pública_Energia Elétrica_Energia Elétrica</v>
       </c>
@@ -10712,10 +10711,10 @@
       <c r="A371" t="s">
         <v>835</v>
       </c>
-      <c r="B371" s="3" t="s">
+      <c r="B371" t="s">
         <v>747</v>
       </c>
-      <c r="C371" s="3" t="str">
+      <c r="C371" t="str">
         <f t="shared" si="5"/>
         <v>Utilidade Pública_Energia Elétrica_Energia Elétrica</v>
       </c>
@@ -10729,14 +10728,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>749</v>
       </c>
-      <c r="B372" s="3" t="s">
+      <c r="B372" t="s">
         <v>748</v>
       </c>
-      <c r="C372" s="3" t="str">
+      <c r="C372" t="str">
         <f t="shared" si="5"/>
         <v>Consumo não Cíclico_Agropecuária_Agricultura</v>
       </c>
@@ -10750,14 +10749,14 @@
         <v>32</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>751</v>
       </c>
-      <c r="B373" s="3" t="s">
+      <c r="B373" t="s">
         <v>750</v>
       </c>
-      <c r="C373" s="3" t="str">
+      <c r="C373" t="str">
         <f t="shared" si="5"/>
         <v>Bens Industriais_Material de Transporte_Material Rodoviário</v>
       </c>
@@ -10771,14 +10770,14 @@
         <v>357</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>753</v>
       </c>
-      <c r="B374" s="3" t="s">
+      <c r="B374" t="s">
         <v>752</v>
       </c>
-      <c r="C374" s="3" t="str">
+      <c r="C374" t="str">
         <f t="shared" si="5"/>
         <v>Consumo Cíclico_Tecidos. Vestuário e Calçados_Fios e Tecidos</v>
       </c>
@@ -10792,14 +10791,14 @@
         <v>197</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>755</v>
       </c>
-      <c r="B375" s="3" t="s">
+      <c r="B375" t="s">
         <v>754</v>
       </c>
-      <c r="C375" s="3" t="str">
+      <c r="C375" t="str">
         <f t="shared" si="5"/>
         <v>Consumo Cíclico_Utilidades Domésticas_Móveis</v>
       </c>
@@ -10813,14 +10812,14 @@
         <v>487</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>757</v>
       </c>
-      <c r="B376" s="3" t="s">
+      <c r="B376" t="s">
         <v>756</v>
       </c>
-      <c r="C376" s="3" t="str">
+      <c r="C376" t="str">
         <f t="shared" si="5"/>
         <v>Petróleo. Gás e Biocombustíveis_Petróleo. Gás e Biocombustíveis_Exploração. Refino e Distribuição</v>
       </c>
@@ -10834,14 +10833,14 @@
         <v>239</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>759</v>
       </c>
-      <c r="B377" s="3" t="s">
+      <c r="B377" t="s">
         <v>758</v>
       </c>
-      <c r="C377" s="3" t="str">
+      <c r="C377" t="str">
         <f t="shared" si="5"/>
         <v>Materiais Básicos_Químicos_Químicos Diversos</v>
       </c>
@@ -10855,14 +10854,14 @@
         <v>233</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>759</v>
       </c>
-      <c r="B378" s="3" t="s">
+      <c r="B378" t="s">
         <v>760</v>
       </c>
-      <c r="C378" s="3" t="str">
+      <c r="C378" t="str">
         <f t="shared" si="5"/>
         <v>Materiais Básicos_Químicos_Químicos Diversos</v>
       </c>
@@ -10876,14 +10875,14 @@
         <v>233</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>759</v>
       </c>
-      <c r="B379" s="3" t="s">
+      <c r="B379" t="s">
         <v>761</v>
       </c>
-      <c r="C379" s="3" t="str">
+      <c r="C379" t="str">
         <f t="shared" si="5"/>
         <v>Materiais Básicos_Químicos_Químicos Diversos</v>
       </c>
@@ -10897,14 +10896,14 @@
         <v>233</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>763</v>
       </c>
-      <c r="B380" s="3" t="s">
+      <c r="B380" t="s">
         <v>762</v>
       </c>
-      <c r="C380" s="3" t="str">
+      <c r="C380" t="str">
         <f t="shared" si="5"/>
         <v>Materiais Básicos_Siderurgia e Metalurgia_Siderurgia</v>
       </c>
@@ -10918,14 +10917,14 @@
         <v>247</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>763</v>
       </c>
-      <c r="B381" s="3" t="s">
+      <c r="B381" t="s">
         <v>764</v>
       </c>
-      <c r="C381" s="3" t="str">
+      <c r="C381" t="str">
         <f t="shared" si="5"/>
         <v>Materiais Básicos_Siderurgia e Metalurgia_Siderurgia</v>
       </c>
@@ -10939,14 +10938,14 @@
         <v>247</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>766</v>
       </c>
-      <c r="B382" s="3" t="s">
+      <c r="B382" t="s">
         <v>765</v>
       </c>
-      <c r="C382" s="3" t="str">
+      <c r="C382" t="str">
         <f t="shared" si="5"/>
         <v>Materiais Básicos_Mineração_Minerais Metálicos</v>
       </c>
@@ -10960,14 +10959,14 @@
         <v>154</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>768</v>
       </c>
-      <c r="B383" s="3" t="s">
+      <c r="B383" t="s">
         <v>767</v>
       </c>
-      <c r="C383" s="3" t="str">
+      <c r="C383" t="str">
         <f t="shared" si="5"/>
         <v>Consumo Cíclico_Diversos_Aluguel de carros</v>
       </c>
@@ -10981,14 +10980,14 @@
         <v>520</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>770</v>
       </c>
-      <c r="B384" s="3" t="s">
+      <c r="B384" t="s">
         <v>769</v>
       </c>
-      <c r="C384" s="3" t="str">
+      <c r="C384" t="str">
         <f t="shared" si="5"/>
         <v>Petróleo. Gás e Biocombustíveis_Petróleo. Gás e Biocombustíveis_Exploração. Refino e Distribuição</v>
       </c>
@@ -11002,14 +11001,14 @@
         <v>239</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>836</v>
       </c>
-      <c r="B385" s="3" t="s">
+      <c r="B385" t="s">
         <v>771</v>
       </c>
-      <c r="C385" s="3" t="str">
+      <c r="C385" t="str">
         <f t="shared" si="5"/>
         <v>Consumo Cíclico_Comércio_Eletrodomésticos</v>
       </c>
@@ -11023,14 +11022,14 @@
         <v>39</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>773</v>
       </c>
-      <c r="B386" s="3" t="s">
+      <c r="B386" t="s">
         <v>772</v>
       </c>
-      <c r="C386" s="3" t="str">
+      <c r="C386" t="str">
         <f t="shared" si="5"/>
         <v>Materiais Básicos_Químicos_Fertilizantes e Defensivos</v>
       </c>
@@ -11044,14 +11043,14 @@
         <v>350</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>775</v>
       </c>
-      <c r="B387" s="3" t="s">
+      <c r="B387" t="s">
         <v>774</v>
       </c>
-      <c r="C387" s="3" t="str">
+      <c r="C387" t="str">
         <f t="shared" ref="C387:C401" si="6">D387 &amp; "_" &amp; E387 &amp; "_" &amp; F387</f>
         <v>Consumo Cíclico_Tecidos. Vestuário e Calçados_Acessórios</v>
       </c>
@@ -11065,14 +11064,14 @@
         <v>512</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>777</v>
       </c>
-      <c r="B388" s="3" t="s">
+      <c r="B388" t="s">
         <v>776</v>
       </c>
-      <c r="C388" s="3" t="str">
+      <c r="C388" t="str">
         <f t="shared" si="6"/>
         <v>Consumo Cíclico_Construção Civil_Incorporações</v>
       </c>
@@ -11086,14 +11085,14 @@
         <v>80</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>779</v>
       </c>
-      <c r="B389" s="3" t="s">
+      <c r="B389" t="s">
         <v>778</v>
       </c>
-      <c r="C389" s="3" t="str">
+      <c r="C389" t="str">
         <f t="shared" si="6"/>
         <v>Comunicações_Telecomunicações_Telecomunicações</v>
       </c>
@@ -11107,14 +11106,14 @@
         <v>272</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>781</v>
       </c>
-      <c r="B390" s="3" t="s">
+      <c r="B390" t="s">
         <v>780</v>
       </c>
-      <c r="C390" s="3" t="str">
+      <c r="C390" t="str">
         <f t="shared" si="6"/>
         <v>Bens Industriais_Serviços_Serviços Diversos</v>
       </c>
@@ -11128,14 +11127,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>783</v>
       </c>
-      <c r="B391" s="3" t="s">
+      <c r="B391" t="s">
         <v>782</v>
       </c>
-      <c r="C391" s="3" t="str">
+      <c r="C391" t="str">
         <f t="shared" si="6"/>
         <v>Consumo Cíclico_Comércio_Tecidos. Vestuário e Calçados</v>
       </c>
@@ -11149,14 +11148,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>785</v>
       </c>
-      <c r="B392" s="3" t="s">
+      <c r="B392" t="s">
         <v>784</v>
       </c>
-      <c r="C392" s="3" t="str">
+      <c r="C392" t="str">
         <f t="shared" si="6"/>
         <v>Consumo Cíclico_Tecidos. Vestuário e Calçados_Calçados</v>
       </c>
@@ -11170,14 +11169,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>787</v>
       </c>
-      <c r="B393" s="3" t="s">
+      <c r="B393" t="s">
         <v>786</v>
       </c>
-      <c r="C393" s="3" t="str">
+      <c r="C393" t="str">
         <f t="shared" si="6"/>
         <v>Saúde_Comércio e Distribuição_Medicamentos e Outros Produtos</v>
       </c>
@@ -11191,14 +11190,14 @@
         <v>121</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>789</v>
       </c>
-      <c r="B394" s="3" t="s">
+      <c r="B394" t="s">
         <v>788</v>
       </c>
-      <c r="C394" s="3" t="str">
+      <c r="C394" t="str">
         <f t="shared" si="6"/>
         <v>Bens Industriais_Máquinas e Equipamentos_Motores . Compressores e Outros</v>
       </c>
@@ -11212,14 +11211,14 @@
         <v>687</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>791</v>
       </c>
-      <c r="B395" s="3" t="s">
+      <c r="B395" t="s">
         <v>790</v>
       </c>
-      <c r="C395" s="3" t="str">
+      <c r="C395" t="str">
         <f t="shared" si="6"/>
         <v>Consumo Cíclico_Utilidades Domésticas_Móveis</v>
       </c>
@@ -11233,14 +11232,14 @@
         <v>487</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>793</v>
       </c>
-      <c r="B396" s="3" t="s">
+      <c r="B396" t="s">
         <v>792</v>
       </c>
-      <c r="C396" s="3" t="str">
+      <c r="C396" t="str">
         <f t="shared" si="6"/>
         <v>Consumo Cíclico_Utilidades Domésticas_Eletrodomésticos</v>
       </c>
@@ -11254,14 +11253,14 @@
         <v>39</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>793</v>
       </c>
-      <c r="B397" s="3" t="s">
+      <c r="B397" t="s">
         <v>794</v>
       </c>
-      <c r="C397" s="3" t="str">
+      <c r="C397" t="str">
         <f t="shared" si="6"/>
         <v>Consumo Cíclico_Utilidades Domésticas_Eletrodomésticos</v>
       </c>
@@ -11275,14 +11274,14 @@
         <v>39</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>796</v>
       </c>
-      <c r="B398" s="3" t="s">
+      <c r="B398" t="s">
         <v>795</v>
       </c>
-      <c r="C398" s="3" t="str">
+      <c r="C398" t="str">
         <f t="shared" si="6"/>
         <v>Financeiro_Previdência e Seguros_Corretoras de Seguros e Resseguros</v>
       </c>
@@ -11296,14 +11295,14 @@
         <v>797</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>799</v>
       </c>
-      <c r="B399" s="3" t="s">
+      <c r="B399" t="s">
         <v>798</v>
       </c>
-      <c r="C399" s="3" t="str">
+      <c r="C399" t="str">
         <f t="shared" si="6"/>
         <v>Bens Industriais_Comércio_Material de Transporte</v>
       </c>
@@ -11317,14 +11316,14 @@
         <v>310</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>801</v>
       </c>
-      <c r="B400" s="3" t="s">
+      <c r="B400" t="s">
         <v>800</v>
       </c>
-      <c r="C400" s="3" t="str">
+      <c r="C400" t="str">
         <f t="shared" si="6"/>
         <v>Consumo Cíclico_Diversos_Serviços Educacionais</v>
       </c>
@@ -11338,14 +11337,14 @@
         <v>64</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>803</v>
       </c>
-      <c r="B401" s="3" t="s">
+      <c r="B401" t="s">
         <v>802</v>
       </c>
-      <c r="C401" s="3" t="str">
+      <c r="C401" t="str">
         <f t="shared" si="6"/>
         <v>Consumo Cíclico_Hoteis e Restaurantes_Restaurante e Similares</v>
       </c>
@@ -11360,7 +11359,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F401" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F401" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Energia Elétrica"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/src/main/resources/Templates/Informacoes_Empresas.xlsx
+++ b/src/main/resources/Templates/Informacoes_Empresas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MENICIO JR\Desktop\Natural2SPARQL-master\src\main\resources\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MENICIO JR\Desktop\Natural2SPARQL_2025\src\main\resources\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1E797B-3004-467E-B1F2-97728F99ED5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD50BB1A-9B20-4551-BFC3-6C6DFAD79351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2922,11 +2922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:F401"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2958,7 +2957,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2979,7 +2978,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -3000,7 +2999,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -3021,7 +3020,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -3084,7 +3083,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -3105,7 +3104,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -3126,7 +3125,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -3147,7 +3146,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -3168,7 +3167,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -3189,7 +3188,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -3210,7 +3209,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>812</v>
       </c>
@@ -3294,7 +3293,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -3315,7 +3314,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -3336,7 +3335,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>839</v>
       </c>
@@ -3357,7 +3356,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>62</v>
       </c>
@@ -3378,7 +3377,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>813</v>
       </c>
@@ -3399,7 +3398,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>67</v>
       </c>
@@ -3420,7 +3419,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>814</v>
       </c>
@@ -3441,7 +3440,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>70</v>
       </c>
@@ -3462,7 +3461,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>840</v>
       </c>
@@ -3483,7 +3482,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>815</v>
       </c>
@@ -3525,7 +3524,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>78</v>
       </c>
@@ -3546,7 +3545,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>82</v>
       </c>
@@ -3567,7 +3566,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>82</v>
       </c>
@@ -3588,7 +3587,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>87</v>
       </c>
@@ -3609,7 +3608,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>841</v>
       </c>
@@ -3630,7 +3629,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>816</v>
       </c>
@@ -3651,7 +3650,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>94</v>
       </c>
@@ -3672,7 +3671,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>94</v>
       </c>
@@ -3693,7 +3692,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>98</v>
       </c>
@@ -3714,7 +3713,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>837</v>
       </c>
@@ -3735,7 +3734,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>101</v>
       </c>
@@ -3756,7 +3755,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>101</v>
       </c>
@@ -3777,7 +3776,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>104</v>
       </c>
@@ -3798,7 +3797,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>108</v>
       </c>
@@ -3819,7 +3818,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>108</v>
       </c>
@@ -3840,7 +3839,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>111</v>
       </c>
@@ -3861,7 +3860,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>115</v>
       </c>
@@ -3882,7 +3881,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>115</v>
       </c>
@@ -3903,7 +3902,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>118</v>
       </c>
@@ -3924,7 +3923,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>120</v>
       </c>
@@ -3945,7 +3944,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>123</v>
       </c>
@@ -3966,7 +3965,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>125</v>
       </c>
@@ -3987,7 +3986,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>125</v>
       </c>
@@ -4008,7 +4007,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>128</v>
       </c>
@@ -4029,7 +4028,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>130</v>
       </c>
@@ -4050,7 +4049,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>132</v>
       </c>
@@ -4071,7 +4070,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>136</v>
       </c>
@@ -4092,7 +4091,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>817</v>
       </c>
@@ -4113,7 +4112,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>141</v>
       </c>
@@ -4134,7 +4133,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>145</v>
       </c>
@@ -4155,7 +4154,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>145</v>
       </c>
@@ -4176,7 +4175,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>145</v>
       </c>
@@ -4197,7 +4196,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>149</v>
       </c>
@@ -4218,7 +4217,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>151</v>
       </c>
@@ -4239,7 +4238,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>151</v>
       </c>
@@ -4260,7 +4259,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>157</v>
       </c>
@@ -4281,7 +4280,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>159</v>
       </c>
@@ -4302,7 +4301,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>818</v>
       </c>
@@ -4323,7 +4322,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>819</v>
       </c>
@@ -4344,7 +4343,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>820</v>
       </c>
@@ -4365,7 +4364,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>820</v>
       </c>
@@ -4386,7 +4385,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>165</v>
       </c>
@@ -4407,7 +4406,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>165</v>
       </c>
@@ -4428,7 +4427,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>821</v>
       </c>
@@ -4449,7 +4448,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>171</v>
       </c>
@@ -4470,7 +4469,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>171</v>
       </c>
@@ -4491,7 +4490,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>171</v>
       </c>
@@ -4512,7 +4511,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>175</v>
       </c>
@@ -4533,7 +4532,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>175</v>
       </c>
@@ -4554,7 +4553,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>178</v>
       </c>
@@ -4575,7 +4574,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>180</v>
       </c>
@@ -4596,7 +4595,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>183</v>
       </c>
@@ -4617,7 +4616,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>185</v>
       </c>
@@ -4659,7 +4658,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>822</v>
       </c>
@@ -4680,7 +4679,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>190</v>
       </c>
@@ -4764,7 +4763,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>196</v>
       </c>
@@ -4785,7 +4784,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>196</v>
       </c>
@@ -4827,7 +4826,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>202</v>
       </c>
@@ -4848,7 +4847,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>205</v>
       </c>
@@ -4869,7 +4868,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>205</v>
       </c>
@@ -4890,7 +4889,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>810</v>
       </c>
@@ -4911,7 +4910,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>804</v>
       </c>
@@ -5016,7 +5015,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>216</v>
       </c>
@@ -5058,7 +5057,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>220</v>
       </c>
@@ -5163,7 +5162,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>228</v>
       </c>
@@ -5184,7 +5183,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>823</v>
       </c>
@@ -5205,7 +5204,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>823</v>
       </c>
@@ -5226,7 +5225,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>232</v>
       </c>
@@ -5247,7 +5246,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>232</v>
       </c>
@@ -5268,7 +5267,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>824</v>
       </c>
@@ -5289,7 +5288,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>237</v>
       </c>
@@ -5310,7 +5309,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>241</v>
       </c>
@@ -5331,7 +5330,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>243</v>
       </c>
@@ -5352,7 +5351,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>245</v>
       </c>
@@ -5394,7 +5393,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>250</v>
       </c>
@@ -5415,7 +5414,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>252</v>
       </c>
@@ -5436,7 +5435,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>806</v>
       </c>
@@ -5457,7 +5456,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>806</v>
       </c>
@@ -5478,7 +5477,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>256</v>
       </c>
@@ -5499,7 +5498,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>256</v>
       </c>
@@ -5520,7 +5519,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>259</v>
       </c>
@@ -5541,7 +5540,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>261</v>
       </c>
@@ -5562,7 +5561,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>264</v>
       </c>
@@ -5583,7 +5582,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>266</v>
       </c>
@@ -5604,7 +5603,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>268</v>
       </c>
@@ -5625,7 +5624,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>270</v>
       </c>
@@ -5646,7 +5645,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>274</v>
       </c>
@@ -5667,7 +5666,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>274</v>
       </c>
@@ -5688,7 +5687,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>277</v>
       </c>
@@ -5709,7 +5708,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>279</v>
       </c>
@@ -5730,7 +5729,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>281</v>
       </c>
@@ -5751,7 +5750,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>283</v>
       </c>
@@ -5772,7 +5771,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>286</v>
       </c>
@@ -5793,7 +5792,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>290</v>
       </c>
@@ -5814,7 +5813,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>292</v>
       </c>
@@ -5940,7 +5939,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>303</v>
       </c>
@@ -5982,7 +5981,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>309</v>
       </c>
@@ -6003,7 +6002,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>805</v>
       </c>
@@ -6129,7 +6128,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>321</v>
       </c>
@@ -6150,7 +6149,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>323</v>
       </c>
@@ -6234,7 +6233,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>331</v>
       </c>
@@ -6255,7 +6254,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>333</v>
       </c>
@@ -6276,7 +6275,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>333</v>
       </c>
@@ -6297,7 +6296,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>337</v>
       </c>
@@ -6318,7 +6317,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>340</v>
       </c>
@@ -6339,7 +6338,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>340</v>
       </c>
@@ -6360,7 +6359,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>343</v>
       </c>
@@ -6381,7 +6380,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>345</v>
       </c>
@@ -6402,7 +6401,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>347</v>
       </c>
@@ -6423,7 +6422,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>349</v>
       </c>
@@ -6444,7 +6443,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>352</v>
       </c>
@@ -6465,7 +6464,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>354</v>
       </c>
@@ -6486,7 +6485,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>356</v>
       </c>
@@ -6507,7 +6506,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>825</v>
       </c>
@@ -6570,7 +6569,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>363</v>
       </c>
@@ -6591,7 +6590,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>365</v>
       </c>
@@ -6612,7 +6611,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>365</v>
       </c>
@@ -6633,7 +6632,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>368</v>
       </c>
@@ -6654,7 +6653,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>370</v>
       </c>
@@ -6675,7 +6674,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>372</v>
       </c>
@@ -6696,7 +6695,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>372</v>
       </c>
@@ -6717,7 +6716,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>375</v>
       </c>
@@ -6738,7 +6737,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>377</v>
       </c>
@@ -6759,7 +6758,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>379</v>
       </c>
@@ -6780,7 +6779,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>382</v>
       </c>
@@ -6801,7 +6800,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>384</v>
       </c>
@@ -6822,7 +6821,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>384</v>
       </c>
@@ -6843,7 +6842,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>387</v>
       </c>
@@ -6864,7 +6863,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>389</v>
       </c>
@@ -6885,7 +6884,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>391</v>
       </c>
@@ -6906,7 +6905,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>393</v>
       </c>
@@ -6927,7 +6926,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>396</v>
       </c>
@@ -6948,7 +6947,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>398</v>
       </c>
@@ -6969,7 +6968,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>402</v>
       </c>
@@ -6990,7 +6989,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>406</v>
       </c>
@@ -7011,7 +7010,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>408</v>
       </c>
@@ -7032,7 +7031,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>826</v>
       </c>
@@ -7053,7 +7052,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>411</v>
       </c>
@@ -7074,7 +7073,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>411</v>
       </c>
@@ -7095,7 +7094,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>411</v>
       </c>
@@ -7116,7 +7115,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>415</v>
       </c>
@@ -7137,7 +7136,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>415</v>
       </c>
@@ -7158,7 +7157,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>418</v>
       </c>
@@ -7179,7 +7178,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>421</v>
       </c>
@@ -7200,7 +7199,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>424</v>
       </c>
@@ -7221,7 +7220,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>424</v>
       </c>
@@ -7242,7 +7241,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>428</v>
       </c>
@@ -7263,7 +7262,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>428</v>
       </c>
@@ -7284,7 +7283,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>431</v>
       </c>
@@ -7305,7 +7304,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>434</v>
       </c>
@@ -7326,7 +7325,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>436</v>
       </c>
@@ -7347,7 +7346,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>438</v>
       </c>
@@ -7368,7 +7367,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>440</v>
       </c>
@@ -7389,7 +7388,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>442</v>
       </c>
@@ -7410,7 +7409,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>445</v>
       </c>
@@ -7431,7 +7430,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>447</v>
       </c>
@@ -7452,7 +7451,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>447</v>
       </c>
@@ -7473,7 +7472,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>447</v>
       </c>
@@ -7494,7 +7493,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>808</v>
       </c>
@@ -7515,7 +7514,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>453</v>
       </c>
@@ -7536,7 +7535,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>455</v>
       </c>
@@ -7557,7 +7556,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>457</v>
       </c>
@@ -7620,7 +7619,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>464</v>
       </c>
@@ -7641,7 +7640,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>466</v>
       </c>
@@ -7662,7 +7661,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>468</v>
       </c>
@@ -7683,7 +7682,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>470</v>
       </c>
@@ -7704,7 +7703,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>473</v>
       </c>
@@ -7725,7 +7724,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>475</v>
       </c>
@@ -7746,7 +7745,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>478</v>
       </c>
@@ -7767,7 +7766,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>480</v>
       </c>
@@ -7788,7 +7787,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>482</v>
       </c>
@@ -7809,7 +7808,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>484</v>
       </c>
@@ -7830,7 +7829,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>486</v>
       </c>
@@ -7851,7 +7850,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>489</v>
       </c>
@@ -7872,7 +7871,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>491</v>
       </c>
@@ -7893,7 +7892,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>493</v>
       </c>
@@ -7935,7 +7934,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>497</v>
       </c>
@@ -7956,7 +7955,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>499</v>
       </c>
@@ -7977,7 +7976,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="241" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>502</v>
       </c>
@@ -7998,7 +7997,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="242" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>505</v>
       </c>
@@ -8019,7 +8018,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="243" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>507</v>
       </c>
@@ -8040,7 +8039,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="244" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>509</v>
       </c>
@@ -8061,7 +8060,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="245" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>511</v>
       </c>
@@ -8082,7 +8081,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="246" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>514</v>
       </c>
@@ -8103,7 +8102,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="247" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>516</v>
       </c>
@@ -8124,7 +8123,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="248" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>828</v>
       </c>
@@ -8145,7 +8144,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="249" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>519</v>
       </c>
@@ -8166,7 +8165,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="250" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>522</v>
       </c>
@@ -8187,7 +8186,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="251" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>524</v>
       </c>
@@ -8208,7 +8207,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="252" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>526</v>
       </c>
@@ -8229,7 +8228,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="253" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>528</v>
       </c>
@@ -8250,7 +8249,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="254" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>530</v>
       </c>
@@ -8271,7 +8270,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="255" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>533</v>
       </c>
@@ -8292,7 +8291,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="256" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>535</v>
       </c>
@@ -8313,7 +8312,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="257" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>537</v>
       </c>
@@ -8355,7 +8354,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="259" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>541</v>
       </c>
@@ -8376,7 +8375,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="260" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>543</v>
       </c>
@@ -8397,7 +8396,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="261" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>829</v>
       </c>
@@ -8418,7 +8417,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="262" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>546</v>
       </c>
@@ -8439,7 +8438,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="263" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>548</v>
       </c>
@@ -8460,7 +8459,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="264" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>551</v>
       </c>
@@ -8481,7 +8480,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="265" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>553</v>
       </c>
@@ -8502,7 +8501,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="266" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>555</v>
       </c>
@@ -8523,7 +8522,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="267" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>557</v>
       </c>
@@ -8544,7 +8543,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="268" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>557</v>
       </c>
@@ -8565,7 +8564,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="269" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>560</v>
       </c>
@@ -8586,7 +8585,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="270" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>562</v>
       </c>
@@ -8607,7 +8606,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="271" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>564</v>
       </c>
@@ -8628,7 +8627,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="272" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>566</v>
       </c>
@@ -8649,7 +8648,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="273" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>568</v>
       </c>
@@ -8670,7 +8669,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="274" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>570</v>
       </c>
@@ -8691,7 +8690,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="275" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>572</v>
       </c>
@@ -8712,7 +8711,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="276" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>574</v>
       </c>
@@ -8733,7 +8732,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="277" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>574</v>
       </c>
@@ -8754,7 +8753,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="278" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>577</v>
       </c>
@@ -8775,7 +8774,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="279" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>577</v>
       </c>
@@ -8796,7 +8795,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="280" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>580</v>
       </c>
@@ -8817,7 +8816,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="281" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>582</v>
       </c>
@@ -8838,7 +8837,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="282" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>584</v>
       </c>
@@ -8859,7 +8858,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="283" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>586</v>
       </c>
@@ -8880,7 +8879,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="284" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>588</v>
       </c>
@@ -8901,7 +8900,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="285" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>590</v>
       </c>
@@ -8922,7 +8921,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="286" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>592</v>
       </c>
@@ -8943,7 +8942,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="287" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>595</v>
       </c>
@@ -8964,7 +8963,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="288" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>597</v>
       </c>
@@ -8985,7 +8984,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="289" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>597</v>
       </c>
@@ -9006,7 +9005,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="290" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>600</v>
       </c>
@@ -9027,7 +9026,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="291" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>603</v>
       </c>
@@ -9048,7 +9047,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="292" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>605</v>
       </c>
@@ -9069,7 +9068,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="293" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>608</v>
       </c>
@@ -9090,7 +9089,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="294" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>610</v>
       </c>
@@ -9111,7 +9110,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="295" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>612</v>
       </c>
@@ -9132,7 +9131,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="296" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>614</v>
       </c>
@@ -9153,7 +9152,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="297" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>616</v>
       </c>
@@ -9174,7 +9173,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="298" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>616</v>
       </c>
@@ -9195,7 +9194,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="299" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>619</v>
       </c>
@@ -9216,7 +9215,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="300" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>621</v>
       </c>
@@ -9237,7 +9236,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="301" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>623</v>
       </c>
@@ -9258,7 +9257,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="302" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>626</v>
       </c>
@@ -9279,7 +9278,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="303" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>628</v>
       </c>
@@ -9300,7 +9299,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="304" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>631</v>
       </c>
@@ -9321,7 +9320,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="305" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>631</v>
       </c>
@@ -9342,7 +9341,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="306" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>634</v>
       </c>
@@ -9363,7 +9362,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="307" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>634</v>
       </c>
@@ -9384,7 +9383,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="308" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>637</v>
       </c>
@@ -9405,7 +9404,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="309" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>639</v>
       </c>
@@ -9426,7 +9425,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="310" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>641</v>
       </c>
@@ -9468,7 +9467,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="312" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>645</v>
       </c>
@@ -9552,7 +9551,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="316" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>651</v>
       </c>
@@ -9573,7 +9572,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="317" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>653</v>
       </c>
@@ -9594,7 +9593,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="318" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>653</v>
       </c>
@@ -9615,7 +9614,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="319" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>653</v>
       </c>
@@ -9636,7 +9635,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="320" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>657</v>
       </c>
@@ -9657,7 +9656,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="321" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>830</v>
       </c>
@@ -9678,7 +9677,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="322" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>660</v>
       </c>
@@ -9699,7 +9698,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="323" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>662</v>
       </c>
@@ -9720,7 +9719,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="324" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>664</v>
       </c>
@@ -9741,7 +9740,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="325" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>664</v>
       </c>
@@ -9762,7 +9761,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="326" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>664</v>
       </c>
@@ -9783,7 +9782,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="327" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>668</v>
       </c>
@@ -9804,7 +9803,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="328" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>668</v>
       </c>
@@ -9825,7 +9824,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="329" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>668</v>
       </c>
@@ -9846,7 +9845,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="330" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>672</v>
       </c>
@@ -9867,7 +9866,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="331" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>674</v>
       </c>
@@ -9888,7 +9887,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="332" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>676</v>
       </c>
@@ -9909,7 +9908,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="333" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>678</v>
       </c>
@@ -9930,7 +9929,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="334" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>680</v>
       </c>
@@ -9951,7 +9950,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="335" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>809</v>
       </c>
@@ -9972,7 +9971,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="336" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>683</v>
       </c>
@@ -9993,7 +9992,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="337" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>686</v>
       </c>
@@ -10014,7 +10013,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="338" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>689</v>
       </c>
@@ -10035,7 +10034,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="339" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>691</v>
       </c>
@@ -10056,7 +10055,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="340" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>831</v>
       </c>
@@ -10077,7 +10076,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="341" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>831</v>
       </c>
@@ -10098,7 +10097,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="342" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>695</v>
       </c>
@@ -10119,7 +10118,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="343" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>698</v>
       </c>
@@ -10140,7 +10139,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="344" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>700</v>
       </c>
@@ -10161,7 +10160,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="345" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>700</v>
       </c>
@@ -10182,7 +10181,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="346" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>704</v>
       </c>
@@ -10203,7 +10202,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="347" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>832</v>
       </c>
@@ -10224,7 +10223,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="348" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>833</v>
       </c>
@@ -10245,7 +10244,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="349" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>708</v>
       </c>
@@ -10266,7 +10265,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="350" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>710</v>
       </c>
@@ -10287,7 +10286,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="351" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>712</v>
       </c>
@@ -10371,7 +10370,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="355" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>718</v>
       </c>
@@ -10392,7 +10391,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="356" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>718</v>
       </c>
@@ -10413,7 +10412,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="357" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>722</v>
       </c>
@@ -10434,7 +10433,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="358" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>724</v>
       </c>
@@ -10455,7 +10454,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="359" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>834</v>
       </c>
@@ -10476,7 +10475,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="360" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>727</v>
       </c>
@@ -10497,7 +10496,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="361" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>727</v>
       </c>
@@ -10518,7 +10517,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="362" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>730</v>
       </c>
@@ -10539,7 +10538,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="363" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>732</v>
       </c>
@@ -10560,7 +10559,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="364" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>735</v>
       </c>
@@ -10581,7 +10580,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="365" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>737</v>
       </c>
@@ -10602,7 +10601,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="366" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>739</v>
       </c>
@@ -10623,7 +10622,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="367" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>741</v>
       </c>
@@ -10644,7 +10643,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="368" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>743</v>
       </c>
@@ -10665,7 +10664,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="369" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>745</v>
       </c>
@@ -10728,7 +10727,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="372" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>749</v>
       </c>
@@ -10749,7 +10748,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="373" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>751</v>
       </c>
@@ -10770,7 +10769,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="374" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>753</v>
       </c>
@@ -10791,7 +10790,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="375" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>755</v>
       </c>
@@ -10812,7 +10811,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="376" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>757</v>
       </c>
@@ -10833,7 +10832,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="377" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>759</v>
       </c>
@@ -10854,7 +10853,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="378" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>759</v>
       </c>
@@ -10875,7 +10874,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="379" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>759</v>
       </c>
@@ -10896,7 +10895,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="380" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>763</v>
       </c>
@@ -10917,7 +10916,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="381" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>763</v>
       </c>
@@ -10938,7 +10937,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="382" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>766</v>
       </c>
@@ -10959,7 +10958,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="383" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>768</v>
       </c>
@@ -10980,7 +10979,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="384" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>770</v>
       </c>
@@ -11001,7 +11000,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="385" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>836</v>
       </c>
@@ -11022,7 +11021,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="386" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>773</v>
       </c>
@@ -11043,7 +11042,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="387" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>775</v>
       </c>
@@ -11064,7 +11063,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="388" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>777</v>
       </c>
@@ -11085,7 +11084,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="389" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>779</v>
       </c>
@@ -11106,7 +11105,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="390" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>781</v>
       </c>
@@ -11127,7 +11126,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="391" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>783</v>
       </c>
@@ -11148,7 +11147,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="392" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>785</v>
       </c>
@@ -11169,7 +11168,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="393" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>787</v>
       </c>
@@ -11190,7 +11189,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="394" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>789</v>
       </c>
@@ -11211,7 +11210,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="395" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>791</v>
       </c>
@@ -11232,7 +11231,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="396" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>793</v>
       </c>
@@ -11253,7 +11252,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="397" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>793</v>
       </c>
@@ -11274,7 +11273,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="398" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>796</v>
       </c>
@@ -11295,7 +11294,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="399" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>799</v>
       </c>
@@ -11316,7 +11315,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="400" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>801</v>
       </c>
@@ -11337,7 +11336,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="401" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>803</v>
       </c>
@@ -11359,13 +11358,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F401" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Energia Elétrica"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F401" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
